--- a/LouisTestFoundation.xlsx
+++ b/LouisTestFoundation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,25 +536,20 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Tous droits réservés © 2020– Centre québécois de philanthropie</t>
+          <t>Téléc</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Téléc</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Total actif</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Total actif</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Limites géog</t>
         </is>
@@ -581,7 +576,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation  Fondation 8401, rte Trans-Canadienne Saint-Laurent QC H4S1Z1 </t>
+          <t>8401, rte Trans-Canadienne Saint-Laurent QC H4S1Z1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -652,7 +647,6 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -670,12 +664,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Air-Canada,Fondation</t>
+          <t>Air-Canada,</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">7373, boul. de la Côte-Vertu 7373, boul. de la Côte-Vertu Saint-Laurent QC H4S1Z3 </t>
+          <t>7373, boul. de la Côte-Vertu Saint-Laurent QC H4S1Z3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -746,7 +740,6 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -769,7 +762,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>, The, The390 Park Ave, 9th Floor   New YorkNY10022 USA</t>
+          <t>390 Park Ave, 9th Floor New York NY 10022 USA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -836,15 +829,14 @@
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>412-553-4498</t>
         </is>
       </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -867,7 +859,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1115, rue Laurier O.   1115, rue Laurier O.   OutremontQCH2V2L3</t>
+          <t>1115, rue Laurier O. Outremont QC H2V2L3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -934,15 +926,14 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>514-908-1354</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -965,7 +956,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27 Allstate Parkway Ave., Suite 100   27 Allstate Parkway Ave., Suite 100   MarkhamONL3R5P8</t>
+          <t>27 Allstate Parkway Ave., Suite 100 Markham ON L3R5P8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1040,15 +1031,14 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>905-415-4899</t>
         </is>
       </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1064,8 +1054,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The American Express Foundation in Canada </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C/O Amex Bank of Canada P.O. Box  3204  Stn  F Toronto ON M1W3W7</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>A</t>
@@ -1130,15 +1128,10 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>C/O Amex Bank of Canada   P.O. Box  3204  Stn  F TorontoONM1W3W7</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1154,8 +1147,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Avon pour les femmes du Canada,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5500, rte Transcanadienne Pointe-Claire QC H9R1B6</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>B</t>
@@ -1230,17 +1231,12 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonda5500, rte Transcanadienne   Pointe-ClaireQCH9R1B6</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
           <t>514-630-5439</t>
         </is>
       </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1256,8 +1252,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CIBC Children's Foundation,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25 King St. W., 30 th Floor Commerce Court North Toronto ON M5L1A2</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>A</t>
@@ -1332,17 +1336,12 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The25 King St. W., 30 th Floor   Commerce Court North TorontoONM5L1A2</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
           <t>416-861-3757</t>
         </is>
       </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1365,7 +1364,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>77 King Street West, 10th Floor   77 King Street West, 10th Floor   TD North Tower TorontoONM5K1A2</t>
+          <t>77 King Street West, 10th Floor TD North Tower Toronto ON M5K1A2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1440,15 +1439,14 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>416-308-6426</t>
         </is>
       </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1471,7 +1469,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation J.-Armand Fondation J.-Armand1000, av. J.-A. Bombardier   ValcourtQCJ0E2L0</t>
+          <t>1000, av. J.-A. Bombardier Valcourt QC J0E2L0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1542,15 +1540,14 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>450-532-5499</t>
         </is>
       </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1573,7 +1570,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation Fondation8500, pl. Marien   MontréalQCH1B5W8</t>
+          <t>8500, pl. Marien Montréal QC H1B5W8</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1640,19 +1637,18 @@
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>514-648-4252</t>
+        </is>
+      </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>514-648-4252</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
           <t>2427</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1675,7 +1671,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation Fondation444, rue Bouvier   QuébecQCG2J1E3</t>
+          <t>444, rue Bouvier Québec QC G2J1E3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1750,7 +1746,6 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1773,7 +1768,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Fondation La Fondation189, boul. Hymus, bur. 601   Pointe-ClaireQCH9R1E9</t>
+          <t>189, boul. Hymus, bur. 601 Pointe-Claire QC H9R1E9</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1848,15 +1843,14 @@
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>514-693-6460</t>
         </is>
       </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1879,7 +1873,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>285, rue St-Georges   285, rue St-Georges   DrummondvilleQCJ2C4H3</t>
+          <t>285, rue St-Georges Drummondville QC J2C4H3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1946,15 +1940,14 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>819-477-6297</t>
         </is>
       </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1977,7 +1970,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation de Bienfaisance, Fondation de Bienfaisance,Charitable Foundation of Carquest and Worldpac  35 Worcester Road RexdaleONM9W1K9</t>
+          <t>Charitable Foundation of Carquest and Worldpac 35 Worcester Road Rexdale ON M9W1K9</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2040,15 +2033,14 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>416-675-1273</t>
         </is>
       </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2071,7 +2063,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation Fondation320, rue St-Joseph E., bur. 100   QuébecQCG1K9E7</t>
+          <t>320, rue St-Joseph E., bur. 100 Québec QC G1K9E7</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2142,15 +2134,14 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>418-525-0769</t>
         </is>
       </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2173,7 +2164,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Fondation La Fondation16, rue Sicard, bur. 50  Ste-ThérèseQCJ7E3W7</t>
+          <t>16, rue Sicard, bur. 50 Ste-Thérèse QC J7E3W7</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2248,15 +2239,14 @@
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>450-435-2428</t>
         </is>
       </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2273,11 +2263,7 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voir : CIBC Children's Foundation, The Voir : CIBC Children's Foundation, The </t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -2298,7 +2284,6 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2321,7 +2306,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonds des bienfaiteurs de la Fonds des bienfaiteurs de laCentre Leonardo Da Vinci   8370, boul. Lacordaire, bur. 310 St-LéonardQCH1R3Y6</t>
+          <t>Centre Leonardo Da Vinci 8370, boul. Lacordaire, bur. 310 St-Léonard QC H1R3Y6</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2392,15 +2377,14 @@
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>514-254-4920</t>
         </is>
       </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2423,7 +2407,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8400, 2e Avenue   8400, 2e Avenue   MontréalQCH1Z4M6</t>
+          <t>8400, 2e Avenue Montréal QC H1Z4M6</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2498,15 +2482,14 @@
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>514-723-8983</t>
         </is>
       </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2529,7 +2512,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LaLa1275, rue Saint-Antoine O.   MontréalQCH3C5L2</t>
+          <t>La 1275, rue Saint-Antoine O. Montréal QC H3C5L2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2608,15 +2591,14 @@
         </is>
       </c>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>514-989-2890</t>
         </is>
       </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2639,7 +2621,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation de la Fondation de la3737, rue Sherbrooke Est   MontréalQCH1X3B3</t>
+          <t>3737, rue Sherbrooke Est Montréal QC H1X3B3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2706,7 +2688,6 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2722,8 +2703,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concessionnaires d'automobiles de Montréal,  </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>La Fondation de la Corporation des 2335, rue Guénette Saint-Laurent QC H4R2E9</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>F</t>
@@ -2798,17 +2787,12 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>La Fondation de la Corporation des2335, rue Guénette   Saint-LaurentQCH4R2E9</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
           <t>514-331-2045</t>
         </is>
       </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2826,12 +2810,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Routhier,Fondation Louis-Charles</t>
+          <t>Routhier,</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9761, boul. des Sciences  9761, boul. des Sciences  MontréalQCH1J0A6</t>
+          <t>9761, boul. des Sciences Montréal QC H1J0A6</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2876,13 +2860,12 @@
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 226 624 $</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2898,8 +2881,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Desjardins</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1, Complexe Desjardins, Tour Sud C.P. 7, succ. Desjardins Montréal QC H5B1B2</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>B</t>
@@ -2974,17 +2965,12 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>, Fondation1, Complexe Desjardins, Tour Sud   C.P. 7, succ. Desjardins MontréalQCH5B1B2</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
           <t>514-281-2391</t>
         </is>
       </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3007,7 +2993,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The The8300, boul. Pie IX   MontréalQCH1Z4E8</t>
+          <t>8300, boul. Pie IX Montréal QC H1Z4E8</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3074,15 +3060,14 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>514-593-4828</t>
         </is>
       </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3105,7 +3090,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C.P. 4471   C.P. 4471   Mont-TremblantQCJ8E1A1</t>
+          <t>C.P. 4471 Mont-Tremblant QC J8E1A1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3184,7 +3169,6 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3202,12 +3186,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fondation Bon départde Canadian Tire du Québec</t>
+          <t>Fondation Bon départ</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">189, boul. Hymus, bur. 601 189, boul. Hymus, bur. 601 Pointe-Claire, QC H9R1E9 </t>
+          <t>189, boul. Hymus, bur. 601 Pointe-Claire, QC H9R1E9</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3270,15 +3254,14 @@
           <t xml:space="preserve"> le Québec. </t>
         </is>
       </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>514 693.6460 1 855 693.6555</t>
         </is>
       </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3301,7 +3284,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a division of Postmedia Network Inc, The a division of Postmedia Network Inc, TheA Division of Southam   1010, rue Ste-Catherine O., bur. 200 MontréalQCH3B5L1</t>
+          <t>A Division of Southam 1010, rue Ste-Catherine O., bur. 200 Montréal QC H3B5L1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3372,15 +3355,14 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>514-987-2600</t>
         </is>
       </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3403,7 +3385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The The7333 Mississauga Rd North   MississaugaONL5N6L4</t>
+          <t>7333 Mississauga Rd North Mississauga ON L5N6L4</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3474,15 +3456,14 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>905-819-3348</t>
         </is>
       </c>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3505,7 +3486,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The The1 Concorde Gate, Suite 900   TorontoONM3C4H9</t>
+          <t>1 Concorde Gate, Suite 900 Toronto ON M3C4H9</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3580,15 +3561,14 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>416-412-6792</t>
         </is>
       </c>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3611,7 +3591,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>180 Honda boul.   180 Honda boul.   MarkhamONL6C0H9</t>
+          <t>180 Honda boul. Markham ON L6C0H9</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3686,15 +3666,14 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>416-865-7048</t>
         </is>
       </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3717,7 +3696,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation Fondation75, boul. René-Lévesque O., 2ième étage   MontréalQCH2Z1A4</t>
+          <t>75, boul. René-Lévesque O., 2ième étage Montréal QC H2Z1A4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3792,15 +3771,14 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>514-289-2840</t>
         </is>
       </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3818,12 +3796,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>La Fondation IKEA,Stichting IKEA Foundation</t>
+          <t>La Fondation IKEA,</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">P.O. Box 11 134 P.O. Box 11 134 2301 EC Leiden The Netherlands </t>
+          <t>P.O. Box 11 134 2301 EC Leiden The Netherlands</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3870,7 +3848,6 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3893,7 +3870,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>700, University Ave, bur. 1500   700, University Ave, bur. 1500   TorontoONM5G0A1</t>
+          <t>700, University Ave, bur. 1500 Toronto ON M5G0A1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3964,15 +3941,14 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>416-440-8970</t>
         </is>
       </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3995,7 +3971,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation  Fondation des Donateurs Jarislowsky Fraser1010, rue Sherbrooke O., bur. 2005   MontréalQCH3A2R7</t>
+          <t>des Donateurs Jarislowsky Fraser 1010, rue Sherbrooke O., bur. 2005 Montréal QC H3A2R7</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4070,15 +4046,14 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>514-842-1882</t>
         </is>
       </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4101,7 +4076,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Fondation Marcelle et Jean La Fondation Marcelle et Jean1374, av. du Mont-Royal E., bur. 104   MontréalQCH2J1Y7</t>
+          <t>1374, av. du Mont-Royal E., bur. 104 Montréal QC H2J1Y7</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4172,15 +4147,14 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>514-527-4917</t>
         </is>
       </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4203,7 +4177,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Fondation La Fondation393 University Ave, Suite 1100   TorontoONM5G2N9</t>
+          <t>393 University Ave, Suite 1100 Toronto ON M5G2N9</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4278,15 +4252,14 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>416-777-8096</t>
         </is>
       </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4302,8 +4275,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fondation L’Oréal Canada</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1500, Boul. Robert-Bourassa, bur. 600 Montréal QC  H3A3S8</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t xml:space="preserve">F  </t>
@@ -4344,15 +4325,10 @@
           <t xml:space="preserve"> internationales. </t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1500, Boul. Robert-Bourassa, bur. 600  Montréal QC  H3A3S8   </t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4375,7 +4351,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">625, rue Jacques-Parizeau, C.P. 16 040  625, rue Jacques-Parizeau, C.P. 16 040  Québec QC  G1R2G5   </t>
+          <t>625, rue Jacques-Parizeau, C.P. 16 040 Québec QC  G1R2G5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4422,7 +4398,6 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4445,7 +4420,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2159, rue Ste-Catherine Est   2159, rue Ste-Catherine Est   MontréalQCH2K2H9</t>
+          <t>2159, rue Ste-Catherine Est Montréal QC H2K2H9</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4520,15 +4495,14 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>514-524-5081</t>
         </is>
       </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4551,7 +4525,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation Annette Fondation Annette54, rue Amyot   Rivière-du-LoupQCG5R3E9</t>
+          <t>54, rue Amyot Rivière-du-Loup QC G5R3E9</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4614,15 +4588,14 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>418-862-5054</t>
         </is>
       </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4640,12 +4613,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fondation Raymond James CanadaFoundation</t>
+          <t>Fondation Raymond James Canada</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">2100 – 925 West Georgia Street 2100 – 925 West Georgia Street Vancouver, BC V6C3L2 </t>
+          <t>2100 – 925 West Georgia Street Vancouver, BC V6C3L2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4708,7 +4681,6 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4731,7 +4703,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>180 Queen St. W., Suite 1600   180 Queen St. W., Suite 1600   TorontoONM5V3K1</t>
+          <t>180 Queen St. W., Suite 1600 Toronto ON M5V3K1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4802,15 +4774,14 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>866-766-6623</t>
         </is>
       </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4833,7 +4804,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Harrison Harrison8800 Main Street   Florenceville-BristolNBE7L1B2</t>
+          <t>8800 Main Street Florenceville-Bristol NB E7L1B2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4900,15 +4871,14 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>506-392-0816</t>
         </is>
       </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4924,8 +4894,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McCarthy Tétrault Foundation </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Toronto Dominion Bank Tower, Suite 5300 P.O. Box 48 Toronto ON M5K1E6</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>B</t>
@@ -4992,17 +4970,12 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Toronto Dominion Bank Tower, Suite 5300   P.O. Box 48 TorontoONM5K1E6</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
           <t>416-868-0673</t>
         </is>
       </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5025,7 +4998,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Fondation La Fondation8625, rte Transcanadienne   Saint-LaurentQCH4S1Z6</t>
+          <t>8625, rte Transcanadienne Saint-Laurent QC H4S1Z6</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5088,15 +5061,14 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>514-745-2300</t>
         </is>
       </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5119,7 +5091,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation Fondation2500, boul. Daniel-Johnson, 7 étage   LavalQCH7T2P6</t>
+          <t>2500, boul. Daniel-Johnson, 7 étage Laval QC H7T2P6</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5178,15 +5150,14 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>450-688-3900</t>
         </is>
       </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5209,7 +5180,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">a/s 2500, boul. Daniel-Johnson, bur. 500  a/s 2500, boul. Daniel-Johnson, bur. 500  Laval QC  H7P2T6   </t>
+          <t>a/s 2500, boul. Daniel-Johnson, bur. 500 Laval QC  H7P2T6</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5264,7 +5235,6 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5287,7 +5257,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Thec/o Mitsui &amp; Co. (Canada)   66 Wellington Street West, Suite 3510 TorontoONM5C2T6</t>
+          <t>c/o Mitsui &amp; Co. (Canada) 66 Wellington Street West, Suite 3510 Toronto ON M5C2T6</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5354,15 +5324,14 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>416-865-1486</t>
         </is>
       </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5385,7 +5354,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Fondation La Fondation1555, rue Notre-Dame Est   MontréalQCH2L2R5</t>
+          <t>1555, rue Notre-Dame Est Montréal QC H2L2R5</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5452,15 +5421,14 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>514-599-5396</t>
         </is>
       </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5483,7 +5451,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation Fondation1000, ch. des Voyageurs   Mont-TremblantQCJ8E1T1</t>
+          <t>1000, ch. des Voyageurs Mont-Tremblant QC J8E1T1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5550,15 +5518,14 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>819-681-3000</t>
         </is>
       </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5581,7 +5548,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>246 Post Road E.   246 Post Road E.   WestportCT06880-3615 USA</t>
+          <t>246 Post Road E. Westport CT 06880-3615 USA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5652,7 +5619,6 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5670,7 +5636,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Novartis International AG Postfach 4002Basel, Switzerland</t>
+          <t xml:space="preserve">Novartis International AG </t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -5718,7 +5684,6 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5741,7 +5706,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>c/o Pricewaterhouse Coopers   c/o Pricewaterhouse Coopers   99 Bank Street, Suite 800 OttawaONK1P1K6</t>
+          <t>c/o Pricewaterhouse Coopers 99 Bank Street, Suite 800 Ottawa ON K1P1K6</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5804,15 +5769,14 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>613-237-3963</t>
         </is>
       </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5830,12 +5794,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Fondation Loblaw Companies Limited of Canada,Foundation</t>
+          <t>Fondation Loblaw Companies Limited of Canada</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">a/s 400, ave Ste-Croix  a/s 400, ave Ste-Croix  Saint-Laurent QC  H4N3L4   </t>
+          <t>a/s 400, ave Ste-Croix Saint-Laurent QC  H4N3L4</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5882,7 +5846,6 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5905,7 +5868,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>155 Wellington Street West, 18th Floor   155 Wellington Street West, 18th Floor   TorontoONM5V3K7</t>
+          <t>155 Wellington Street West, 18th Floor Toronto ON M5V3K7</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5980,15 +5943,14 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>416-974-0624</t>
         </is>
       </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6011,7 +5973,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>100-10 760 Shellbridge Way   100-10 760 Shellbridge Way   RichmondBCV6X3H1</t>
+          <t>100-10 760 Shellbridge Way Richmond BC V6X3H1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6086,15 +6048,14 @@
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>604-270-4168</t>
         </is>
       </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6117,7 +6078,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>a/s Les Restaurants Ronald McDonald du Canada   a/s Les Restaurants Ronald McDonald du Canada   1, McDonald's Place TorontoONM3C3L4</t>
+          <t>a/s Les Restaurants Ronald McDonald du Canada 1, McDonald's Place Toronto ON M3C3L4</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6192,15 +6153,14 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>416-446-4679</t>
         </is>
       </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6223,7 +6183,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The The39 Wynford Drive   TorontoONM3C3K5</t>
+          <t>39 Wynford Drive Toronto ON M3C3K5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6298,15 +6258,14 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>416-510-5856</t>
         </is>
       </c>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6329,7 +6288,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation Fondation2150, boul. St-Elzéar O.   LavalQCH7L4A8</t>
+          <t>2150, boul. St-Elzéar O. Laval QC H7L4A8</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6392,19 +6351,18 @@
         </is>
       </c>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>514-856-8706</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>514-856-8706</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
           <t>63700</t>
         </is>
       </c>
+      <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6427,7 +6385,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation Fondation6869, boul. Métropolitain Est   St-LéonardQCH1P1X8</t>
+          <t>6869, boul. Métropolitain Est St-Léonard QC H1P1X8</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6498,15 +6456,14 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>514-328-3375</t>
         </is>
       </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6529,7 +6486,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation du Fondation du1100, boul. René-Lévesque O., 9e étage   MontréalQCH3B5H5</t>
+          <t>1100, boul. René-Lévesque O., 9e étage Montréal QC H3B5H5</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6600,15 +6557,14 @@
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>514-940-7342</t>
         </is>
       </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6631,7 +6587,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sodexo Canada Sodexo Canada 5420 North Service Road, Suite 501  Burlington, ON L7L6C7 </t>
+          <t>Sodexo Canada 5420 North Service Road, Suite 501 Burlington, ON L7L6C7</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6676,7 +6632,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>31 décembreAlimentation (santé; dans les écoles). Banques alimentaires (communautaire et vestimentaires, auberges). Éducation (améliorer l’alimentation). Enfants (développement et bien-être). Environnement. Pauvreté. Santé. Services sociaux.</t>
+          <t>31 décembreAlimentation (santé; dans les écoles). Banques alimentaires (communautaire et vestimentaires, auberges). Éducation (améliorer l’alimentation). Enfants (développement et bien-être). Environnement. Pauvreté. Santé. Services sociaux.Activité bénéfice annuelle (ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés). Dons jumelés (avec les employés).</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -6706,15 +6662,10 @@
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Activité bénéfice annuelle (ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés). Dons jumelés (avec les employés).</t>
-        </is>
-      </c>
+      <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6737,7 +6688,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>c/o Sony of Canada   c/o Sony of Canada   115 Gordon Baker Rd TorontoONM2H3R6</t>
+          <t>c/o Sony of Canada 115 Gordon Baker Rd Toronto ON M2H3R6</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6812,15 +6763,14 @@
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>416-491-7560</t>
         </is>
       </c>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6843,7 +6793,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation Fondation2525, boul. Laurier  C.P. 10 500 Ste-FoyQCG1V4L2</t>
+          <t>2525, boul. Laurier  C.P. 10 500 Ste-Foy QC G1V4L2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6914,15 +6864,14 @@
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>418-652-1659</t>
         </is>
       </c>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6941,7 +6890,7 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Voir la Fondation St-Hubert, plus haut. Voir la Fondation St-Hubert, plus haut. </t>
+          <t>Voir la Fondation St-Hubert, plus haut.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -6964,7 +6913,6 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6987,7 +6935,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">5960 Heisley Rd 5960 Heisley Rd Mentor, OH, 44060-1834  USA </t>
+          <t>5960 Heisley Rd Mentor, OH, 44060-1834  USA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7033,8 +6981,7 @@
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr">
+      <c r="Y69" t="inlineStr">
         <is>
           <t>nationales.</t>
         </is>
@@ -7061,7 +7008,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Fondation pour les enfants La Fondation pour les enfantsRR2, 264 Glen Morris Rd East   St GeorgeONN0E1N0</t>
+          <t>RR2, 264 Glen Morris Rd East St George ON N0E1N0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7132,15 +7079,14 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>519-448-1415</t>
         </is>
       </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7163,7 +7109,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Fondation La Fondation1155, boul. René-Lévesque O., bur. 3200   MontréalQCH3B0C9</t>
+          <t>1155, boul. René-Lévesque O., bur. 3200 Montréal QC H3B0C9</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7238,7 +7184,6 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7257,7 +7202,7 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Fondation Unilever a été révoquée volontairement. La Fondation Unilever a été révoquée volontairement. </t>
+          <t>La Fondation Unilever a été révoquée volontairement.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -7280,7 +7225,6 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7296,8 +7240,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>UPS Foundation,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>c/o UPS Canada Ltd 6285 Northam Drive, Suite 400 Mississauga ON L4V1X5</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>A</t>
@@ -7366,15 +7318,10 @@
         </is>
       </c>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Thec/o UPS Canada Ltd   6285 Northam Drive, Suite 400 MississaugaONL4V1X5</t>
-        </is>
-      </c>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7397,7 +7344,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation  Fondation 7007, ch. Côte-de-Liesse   Saint-LaurentQCH4T1G2</t>
+          <t>7007, ch. Côte-de-Liesse Saint-Laurent QC H4T1G2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7464,15 +7411,14 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr">
+      <c r="V74" t="inlineStr">
         <is>
           <t>514-748-9593</t>
         </is>
       </c>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7495,7 +7441,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The The45 Glover Avenue   P.O. Box 4505 NorwalkCT06856-4505 USA</t>
+          <t>45 Glover Avenue P.O. Box 4505 Norwalk CT 06856-4505 USA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7558,15 +7504,14 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr">
+      <c r="V75" t="inlineStr">
         <is>
           <t>203-968-3330</t>
         </is>
       </c>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LouisTestFoundation.xlsx
+++ b/LouisTestFoundation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1464,87 +1464,51 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bombardier,</t>
+          <t>Fondation de bienfaisance des employés de BMO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1000, av. J.-A. Bombardier Valcourt QC J0E2L0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation privée </t>
-        </is>
-      </c>
+          <t>119, rue St-Jacques Montréal QC  H2Y1L6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Janine Bombardier, Présidente </t>
+          <t xml:space="preserve"> Coordonnateur des dons  </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>450-532-2258</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>500 à 500 000 $</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>5 153 500 $</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>166 008 800 $</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Bimestrielle</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>30 avril</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 514-877-7373   </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Arts et culture (Musées, galeries d'art, salles de concert, etc). Causes charitables en général. Centraide (du Grand Montréal). Coopération internationale (oeuvres missionnaires). Décrochage scolaire. Éducation (collèges et universités). Environnement (parcs et terrains, jardins, etc). Famille (counselling, etc). Handicapés physiques et intellectuels. Hôpitaux. Institutions de recherche. Maisons d'hébergement. Maladies. Musées / Centre d’interprétation. Musique (Orchestre Symphonique de Montréal). Organismes religieux. Santé. Santé mentale. Sciences et sciences sociales. Services communautaires (à Valcourt). Services sociaux. Sports et loisirs. Toxicomanie. Universités.</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Bourses aux particuliers. Bourses d'études (écoles académiques, études supérieures). Campagne annuelle. Campagne de financement. Fondations Cegeps. Fondations hospitalières. Fondations universitaires. Fonds de fonctionnement ou d'opération. Fonds de soutien. Projets de recherches.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Pauvreté : la Fondation améliore la qualité  de vie des personnes dans le besoin.  </t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brochure d'information disponible. Communiquer par : courrier, courriel ou fax. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada et internationales avec emphase sur le Québec. Soumettre d'abord un résumé du projet. </t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>fondation@fjab.qc.ca</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Au Québec le fonds opère sous le nom de Fontaine d’espoir .  </t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>450-532-5499</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> le Canada.</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
@@ -1555,7 +1519,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1565,17 +1529,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Brault &amp; Martineau,</t>
+          <t>Bombardier,</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8500, pl. Marien Montréal QC H1B5W8</t>
+          <t>1000, av. J.-A. Bombardier Valcourt QC J0E2L0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1585,68 +1549,68 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Marie-Berthe Des Groseillers,  Présidente </t>
+          <t xml:space="preserve">Madame Janine Bombardier, Présidente </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>514 881-4079</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>450-532-2258</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>500 à 500 000 $</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>500 000 $</t>
+          <t>5 153 500 $</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1 500 000 $</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
+          <t>166 008 800 $</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Bimestrielle</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>30 avril</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes enregistrés). Enfance et jeunesse. Enfants (développement et bien-être). Enfants maltraîtés / abusés. Handicapés physiques (enfants). Services sociaux (Club des petits déjeuners, Tel-Jeunes, Fondation Maman Dion, Fondation Auberges du coeur etc).</t>
+          <t>Arts et culture (Musées, galeries d'art, salles de concert, etc). Causes charitables en général. Centraide (du Grand Montréal). Coopération internationale (oeuvres missionnaires). Décrochage scolaire. Éducation (collèges et universités). Environnement (parcs et terrains, jardins, etc). Famille (counselling, etc). Handicapés physiques et intellectuels. Hôpitaux. Institutions de recherche. Maisons d'hébergement. Maladies. Musées / Centre d’interprétation. Musique (Orchestre Symphonique de Montréal). Organismes religieux. Santé. Santé mentale. Sciences et sciences sociales. Services communautaires (à Valcourt). Services sociaux. Sports et loisirs. Toxicomanie. Universités.</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Campagne de financement. Dons jumelés (avec les employés et la Fondation BMO). Fondations hospitalières.</t>
+          <t>Bourses aux particuliers. Bourses d'études (écoles académiques, études supérieures). Campagne annuelle. Campagne de financement. Fondations Cegeps. Fondations hospitalières. Fondations universitaires. Fonds de fonctionnement ou d'opération. Fonds de soutien. Projets de recherches.</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aucun renseignement fourni (La fondation ne divulgue pas les derniers montants de l'actif etc.). Communiquer par : courrier ou fax. Limites géographiques : le Québec. </t>
+          <t xml:space="preserve">Brochure d'information disponible. Communiquer par : courrier, courriel ou fax. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada et internationales avec emphase sur le Québec. Soumettre d'abord un résumé du projet. </t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>braultetmartineau@fondation.com</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>www.braultmartineau.com</t>
-        </is>
-      </c>
+          <t>fondation@fjab.qc.ca</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>514-648-4252</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2427</t>
-        </is>
-      </c>
+          <t>450-532-5499</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
     </row>
@@ -1656,7 +1620,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>201</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1666,84 +1630,88 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CAA-Québec,</t>
+          <t>Brault &amp; Martineau,</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>444, rue Bouvier Québec QC G2J1E3</t>
+          <t>8500, pl. Marien Montréal QC H1B5W8</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Michel Sanschagrin, Administrateur </t>
+          <t xml:space="preserve">Madame Marie-Berthe Des Groseillers,  Présidente </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>418-624-4017</t>
+          <t>514 881-4079</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>158 870 $</t>
+          <t>500 000 $</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3 116 560 $</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
+          <t>1 500 000 $</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>30 novembre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Aînés (sécurité et mobilité des aînés condition essentielle à l'autonomie des personnes vieillissantes). Éducation (en sécurité routière). Jeunesse (sécurité des jeunes conducteurs). Recherche (portant sur la sécurité routière et la protection de l'environnement afin de réduire le nombre d'accidents, de blessure et de sauver des vies).</t>
+          <t>Causes charitables en général (organismes enregistrés). Enfance et jeunesse. Enfants (développement et bien-être). Enfants maltraîtés / abusés. Handicapés physiques (enfants). Services sociaux (Club des petits déjeuners, Tel-Jeunes, Fondation Maman Dion, Fondation Auberges du coeur etc).</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Campagne de financement (vente de sacs réutilisables). Écoles.</t>
+          <t>Campagne de financement. Dons jumelés (avec les employés et la Fondation BMO). Fondations hospitalières.</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou courriel. Limites géographiques: le Canada. Voir le site web.</t>
+          <t xml:space="preserve">Aucun renseignement fourni (La fondation ne divulgue pas les derniers montants de l'actif etc.). Communiquer par : courrier ou fax. Limites géographiques : le Québec. </t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>info@fondationcaaquebec.org</t>
+          <t>braultetmartineau@fondation.com</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>www.caaquebec.com</t>
+          <t>www.braultmartineau.com</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>514-648-4252</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2427</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
     </row>
@@ -1753,7 +1721,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>215</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1763,12 +1731,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Canadian Tire du Québec, Bon Départ,</t>
+          <t>CAA-Québec,</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>189, boul. Hymus, bur. 601 Pointe-Claire QC H9R1E9</t>
+          <t>444, rue Bouvier Québec QC G2J1E3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1783,27 +1751,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Justine Gauvin-Marchessault,  Administratrice </t>
+          <t xml:space="preserve">Monsieur Michel Sanschagrin, Administrateur </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>514-693-6456</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>100 à 75 000 $</t>
-        </is>
-      </c>
+          <t>418-624-4017</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>608 470 $</t>
+          <t>158 870 $</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>5 119 970 $</t>
+          <t>3 116 560 $</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1813,41 +1777,37 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>31 mars</t>
+          <t>30 novembre</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Aide aux sinistrés (Désastres naturels). Aide matérielle directe aux familles. Banques alimentaires (communautaire et vêtements). Centres de plein air (et camps d'été; base de plein air Perce-Neige pour enfants défavorisés). Éducation. Enfance et jeunesse (santé, Hébergement ou autres services à l'enfance et à la jeunesse). Enfants (développement et bien-être). Enfants maltraîtés / abusés. Famille (counselling, etc). Femmes et causes féminines. Handicapés physiques et intellectuels (enfants, sourds et malentendants). Hébergement d'urgence. Hôpitaux. Jeunesse (groupes). Pauvreté. Santé (Organismes de santé spécialisés). Services communautaires. Services sociaux. Sports et loisirs.</t>
+          <t>Aînés (sécurité et mobilité des aînés condition essentielle à l'autonomie des personnes vieillissantes). Éducation (en sécurité routière). Jeunesse (sécurité des jeunes conducteurs). Recherche (portant sur la sécurité routière et la protection de l'environnement afin de réduire le nombre d'accidents, de blessure et de sauver des vies).</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Ventes aux enchères, boîtes de collecte, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés, tournois, événements sportifs). Bien-être des enfants (Programmes pour enfants défavorisés par l'entremise de la Base de Plein-air Bon Départ). Fondations hospitalières (Fondation Charles Bruneau). Pauvreté. Recherches médicales (en cancérologie pédiatrique). Santé.</t>
+          <t>Campagne de financement (vente de sacs réutilisables). Écoles.</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel, fax ou téléphone. Tél. : sans frais : 877-616-6600. Limites géographiques : le Québec. Voir le site web.</t>
+          <t>Communiquer par : courrier ou courriel. Limites géographiques: le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>info@fctq.ca</t>
+          <t>info@fondationcaaquebec.org</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>www.fondationcanadiantire.com</t>
+          <t>www.caaquebec.com</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>514-693-6460</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1858,7 +1818,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1868,17 +1828,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation Canimex </t>
+          <t>Canadian Tire du Québec, Bon Départ,</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>285, rue St-Georges Drummondville QC J2C4H3</t>
+          <t>189, boul. Hymus, bur. 601 Pointe-Claire QC H9R1E9</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1888,27 +1848,27 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Roger Dubois, Président </t>
+          <t xml:space="preserve">Madame Justine Gauvin-Marchessault,  Administratrice </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>819-477-1335</t>
+          <t>514-693-6456</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>50 à 37 500 $</t>
+          <t>100 à 75 000 $</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>83 200 $</t>
+          <t>608 470 $</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7 900 $</t>
+          <t>5 119 970 $</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1918,31 +1878,39 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>31 mars</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Arts de la scène (Festivals, groupes d'artistes de spectacle, etc). Arts et culture (des évènements artistiques niveau amateur gratuits). Causes charitables en général. Éducation (Écoles des beaux-arts, bourses et prix aux artistes). Enfants (développement et bien-être). Maladies (prévention et le soulagement de la maladie et la souffrance chez les enfants). Musique. Organismes religieux (catholiques). Santé (santé spécialisés). Services sociaux.</t>
+          <t>Aide aux sinistrés (Désastres naturels). Aide matérielle directe aux familles. Banques alimentaires (communautaire et vêtements). Centres de plein air (et camps d'été; base de plein air Perce-Neige pour enfants défavorisés). Éducation. Enfance et jeunesse (santé, Hébergement ou autres services à l'enfance et à la jeunesse). Enfants (développement et bien-être). Enfants maltraîtés / abusés. Famille (counselling, etc). Femmes et causes féminines. Handicapés physiques et intellectuels (enfants, sourds et malentendants). Hébergement d'urgence. Hôpitaux. Jeunesse (groupes). Pauvreté. Santé (Organismes de santé spécialisés). Services communautaires. Services sociaux. Sports et loisirs.</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers (de perfectionnement). Fondations universitaires.</t>
+          <t>Activité bénéfice annuelle (Ventes aux enchères, boîtes de collecte, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés, tournois, événements sportifs). Bien-être des enfants (Programmes pour enfants défavorisés par l'entremise de la Base de Plein-air Bon Départ). Fondations hospitalières (Fondation Charles Bruneau). Pauvreté. Recherches médicales (en cancérologie pédiatrique). Santé.</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Communiquer par : courrier ou fax. Limites géographiques : le Québec. </t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+          <t>Communiquer par : courrier, courriel, fax ou téléphone. Tél. : sans frais : 877-616-6600. Limites géographiques : le Québec. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>info@fctq.ca</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>www.fondationcanadiantire.com</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>819-477-6297</t>
+          <t>514-693-6460</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1955,7 +1923,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1965,17 +1933,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Carquest et Worldpac,</t>
+          <t>Canadian Pacific Limitée,</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Charitable Foundation of Carquest and Worldpac 35 Worcester Road Rexdale ON M9W1K9</t>
+          <t>de, Canadian Pacific Employee Charities Donation Fund 1100, ave des Canadiens-de-Montréal, bur. 401 Montréal QC H3C3E4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1985,30 +1953,30 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Jacqueline Inman, Secretariat </t>
+          <t xml:space="preserve">Madame Linda Falle, Secrétariat </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>416-679-3038</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>500 à 10 000 $</t>
-        </is>
-      </c>
+          <t>514-395-7455</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>51 500 $</t>
+          <t>9 100 $</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>55 150 $</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
+          <t>9 100 $</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>31 décembre</t>
@@ -2016,26 +1984,38 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Éducation. Famille (counselling, etc). Santé. Services sociaux.</t>
+          <t>Causes charitables en général. Centraide (du Grand Montréal seulement).</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (ventes, tournois, événements sportifs).</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr"/>
+          <t>Dons jumelés (avec les employés et retraités).</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : surtout au Québec.  For anglophone organizations, please see adjacent listing and submit your request in English. Voir le site web.</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>jacqueline.inman@carquest.com</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+          <t>donations@cpr.ca</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>www.cpr.ca</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>linda_falle@cpr.ca</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>416-675-1273</t>
+          <t>514-395-5115</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -2048,7 +2028,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2058,12 +2038,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Laure Gaudreault,</t>
+          <t xml:space="preserve">Fondation Canimex </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>320, rue St-Joseph E., bur. 100 Québec QC G1K9E7</t>
+          <t>285, rue St-Georges Drummondville QC J2C4H3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2073,37 +2053,37 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Org. philanthropique </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Jeannette Bégin-Oudet, Trésorière </t>
+          <t xml:space="preserve">Monsieur Roger Dubois, Président </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>418-525-0611</t>
+          <t>819-477-1335</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>60 à 2 200 $</t>
+          <t>50 à 37 500 $</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>159 600 $</t>
+          <t>83 200 $</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>421 000 $</t>
+          <t>7 900 $</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>En tout temps avant 31 janvier</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2113,30 +2093,26 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Aînés (à faible revenu et personnes retraitées âgées). Jeunesse (Hébergement ou autres services à l'enfance et à la jeunesse). Pauvreté (démunis, autres services destinés aux personnes à faible revenu). Recherche. Santé. Services sociaux.</t>
+          <t>Arts de la scène (Festivals, groupes d'artistes de spectacle, etc). Arts et culture (des évènements artistiques niveau amateur gratuits). Causes charitables en général. Éducation (Écoles des beaux-arts, bourses et prix aux artistes). Enfants (développement et bien-être). Maladies (prévention et le soulagement de la maladie et la souffrance chez les enfants). Musique. Organismes religieux (catholiques). Santé (santé spécialisés). Services sociaux.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Ventes aux enchères, soirées-bénéfice, galas ou concerts, campagnes de financement par la poste, tournois, événements sportifs). Patrimoine vivant (développer des projets en collaboration avec intervenants : artistes, scientifiques, technologues ou ingénieurs).</t>
+          <t>Bourses aux particuliers (de perfectionnement). Fondations universitaires.</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Formulaire disponible sur demande (une demande doit être parrainée par un membre de la Fondation). Joindre le numéro d’enregistrement de charité. Limites géographiques : le Québec. Soumettre d'abord un résumé du projet.</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>hebert.nathalie@csq.qc.net</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Communiquer par : courrier ou fax. Limites géographiques : le Québec. </t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>418-525-0769</t>
+          <t>819-477-6297</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -2149,7 +2125,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2159,17 +2135,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chez Cora Déjeuners,</t>
+          <t>Carquest et Worldpac,</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>16, rue Sicard, bur. 50 Ste-Thérèse QC J7E3W7</t>
+          <t>Charitable Foundation of Carquest and Worldpac 35 Worcester Road Rexdale ON M9W1K9</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2179,69 +2155,57 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Cora Tsouflidou, Présidente </t>
+          <t xml:space="preserve">Mrs Jacqueline Inman, Secretariat </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>450-435-2426</t>
+          <t>416-679-3038</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5 790 $ à 135 000 $</t>
+          <t>500 à 10 000 $</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>140 787 $</t>
+          <t>51 500 $</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>20 985 $</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
+          <t>55 150 $</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>31 octobre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Causes charitables en général (la Fondation appuie des organismes soutenant des causes sociales oeuvrant en milieu scolaire). Éducation. Enfance et jeunesse (dans le besoin). Pauvreté. Services sociaux (Armée du Salut, UNICEF et Club des petits déjeuners du Québec).</t>
+          <t>Causes charitables en général. Éducation. Famille (counselling, etc). Santé. Services sociaux.</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (soirées-bénéfice, galas ou concerts, tournois, événements sportifs). Organismes (communautaires).</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec. Voir le site web.</t>
-        </is>
-      </c>
+          <t>Activité bénéfice annuelle (ventes, tournois, événements sportifs).</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>info@chezcora.com</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>www.chezcora.com/</t>
-        </is>
-      </c>
+          <t>jacqueline.inman@carquest.com</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>450-435-2428</t>
+          <t>416-675-1273</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -2254,7 +2218,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2262,25 +2226,89 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Laure Gaudreault,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>320, rue St-Joseph E., bur. 100 Québec QC G1K9E7</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Org. philanthropique </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madame Jeannette Bégin-Oudet, Trésorière </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>418-525-0611</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>60 à 2 200 $</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>159 600 $</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>421 000 $</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>En tout temps avant 31 janvier</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Aînés (à faible revenu et personnes retraitées âgées). Jeunesse (Hébergement ou autres services à l'enfance et à la jeunesse). Pauvreté (démunis, autres services destinés aux personnes à faible revenu). Recherche. Santé. Services sociaux.</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Activité bénéfice annuelle (Ventes aux enchères, soirées-bénéfice, galas ou concerts, campagnes de financement par la poste, tournois, événements sportifs). Patrimoine vivant (développer des projets en collaboration avec intervenants : artistes, scientifiques, technologues ou ingénieurs).</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Formulaire disponible sur demande (une demande doit être parrainée par un membre de la Fondation). Joindre le numéro d’enregistrement de charité. Limites géographiques : le Québec. Soumettre d'abord un résumé du projet.</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>hebert.nathalie@csq.qc.net</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>418-525-0769</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
@@ -2291,7 +2319,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>274</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2301,43 +2329,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CIBPA,</t>
+          <t>Chez Cora Déjeuners,</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Centre Leonardo Da Vinci 8370, boul. Lacordaire, bur. 310 St-Léonard QC H1R3Y6</t>
+          <t>16, rue Sicard, bur. 50 Ste-Thérèse QC J7E3W7</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Sam Spatari, Président </t>
+          <t xml:space="preserve">Madame Cora Tsouflidou, Présidente </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>514-254-4929</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>450-435-2426</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>5 790 $ à 135 000 $</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15 630 $</t>
+          <t>140 787 $</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>137 800 $</t>
+          <t>20 985 $</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2347,39 +2379,39 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>31 mars</t>
+          <t>31 octobre</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Éducation (Bourses d'études, bourses d'entretien, etc. (voir guide). Services communautaires.</t>
+          <t>Causes charitables en général (la Fondation appuie des organismes soutenant des causes sociales oeuvrant en milieu scolaire). Éducation. Enfance et jeunesse (dans le besoin). Pauvreté. Services sociaux (Armée du Salut, UNICEF et Club des petits déjeuners du Québec).</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers (aux étudiants).</t>
+          <t>Activité bénéfice annuelle (soirées-bénéfice, galas ou concerts, tournois, événements sportifs). Organismes (communautaires).</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Limites géographiques : Montréal. Voir le site web.</t>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec. Voir le site web.</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>cibpa@qc.aira.com</t>
+          <t>info@chezcora.com</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>www.cibpa.qc.com</t>
+          <t>www.chezcora.com/</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>514-254-4920</t>
+          <t>450-435-2428</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -2392,7 +2424,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>281</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2400,93 +2432,25 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondation One Drop </t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8400, 2e Avenue Montréal QC H1Z4M6</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation publique </t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monsieur Richard Wilson, Directeur exécutif </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>514-722-2324</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>14 065 à 2 822 530 $</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>3 144 260 $</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>9 498 000 $</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Causes charitables en général (OXFAM-Québec). Coopération internationale (dans les pays du Sud en donnant de l'eau potable à chacun et partout sur la planète pour les générations à venir). Éducation (développer et enseigner des pratiques d'utilisation responsable et de conservation de l'eau). Environnement (développer des pratiques d'utilisation responsable et de conservation de l'eau et programmes agricoles). Pauvreté (trouver, donner et faciliter l'accès à l'eau). Santé (améliorer la qualité de l'eau).</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Activité bénéfice annuelle (Soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, contacts ciblés, marketing lié à une cause). Coopération internationale. Environnement (développer des pratiques d'utilisation responsable et de conservation de l'eau).</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec et internationales. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>richard.wilson@onedrop.org</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>www.onedrop.org</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>514-723-8983</t>
-        </is>
-      </c>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
@@ -2497,7 +2461,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>283</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2507,93 +2471,85 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Fondation du Club de Hockey Canadien pour l'enfance,</t>
+          <t>CIBPA,</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>La 1275, rue Saint-Antoine O. Montréal QC H3C5L2</t>
+          <t>Centre Leonardo Da Vinci 8370, boul. Lacordaire, bur. 310 St-Léonard QC H1R3Y6</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Bernadette Kajjouni, Directrice  </t>
+          <t xml:space="preserve">Monsieur Sam Spatari, Président </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>514-925-2511</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>250 à 47 480 $</t>
-        </is>
-      </c>
+          <t>514-254-4929</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>900 400 $</t>
+          <t>15 630 $</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>5 186 055 $</t>
+          <t>137 800 $</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15 février et 15 septembre</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>30 juin</t>
+          <t>31 mars</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes enregistrés). Éducation. Hôpitaux (pour enfants). Jeunesse (démunie et défavorisée du Québec, hébergement ou autres services à l'enfance et à la jeunesse). Malades chroniques. Pauvreté (améliorer la qualité de vie chez les jeunes). Santé. Services sociaux. Sports et loisirs (offrir une loge au Centre Bell pour enfants malades ou défavorisés).</t>
+          <t>Éducation (Bourses d'études, bourses d'entretien, etc. (voir guide). Services communautaires.</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (messages publicitaires à la radio ou à la télévision, ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, sollicitation par téléphone, etc).</t>
+          <t>Bourses aux particuliers (aux étudiants).</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur demande (sur le site Web). Limites géographiques : le Québec avec emphase sur Montréal. Voir le site web.</t>
+          <t>Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Limites géographiques : Montréal. Voir le site web.</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>fondation@canadiens.com</t>
+          <t>cibpa@qc.aira.com</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>http://fondation.canadiens.com</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>bkajjouni@centrebell.ca</t>
-        </is>
-      </c>
+          <t>www.cibpa.qc.com</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>514-989-2890</t>
+          <t>514-254-4920</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -2606,7 +2562,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>289</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2616,72 +2572,56 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Commission scolaire de Montréal,</t>
+          <t xml:space="preserve">Chaire de recherche Environnement-Cancer </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3737, rue Sherbrooke Est Montréal QC H1X3B3</t>
+          <t>Chaire de recherche philanthropique École de santé publique Université de Montréal Montréal, QC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Org. philanthropique </t>
-        </is>
-      </c>
+          <t xml:space="preserve">F  </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Joëlle Laforet, Trésorière </t>
+          <t>M. J. Siemiatycki</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>514-596-6000</t>
+          <t xml:space="preserve">514 890-8166  </t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>100 350 $</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>130 300 $</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>30 juin</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Bibliothèques (collecte de volumes pour les écoles). Causes charitables en général (dons aux écoles de la Commission scolaire de Montréal). Éducation (Écoles et commissions scolaires du réseau d'enseignement public).</t>
+          <t xml:space="preserve">Réunir et explorer un maximum de données scientifiques dans l’optique d’adresser l’impact de l’environnement (tant les habitudes de vie que le milieu) sur le développement du cancer.  </t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Dons de sociétés et commandites ciblés). Éducation.</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Administre ses propres programmes (les écoles de la CSM). Communiquer par : courrier. Limites géographiques : Montréal.</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+          <t xml:space="preserve">La Chaire Environnement-Cancer Guzzo de l'Université de Montréal. </t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">j.siemiatycki@umontreal.ca </t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>https://www.cinemasguzzo.com/fondation.html</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -2695,7 +2635,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>293</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2705,52 +2645,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Concessionnaires d'automobiles de Montréal,  </t>
+          <t xml:space="preserve">Fondation One Drop </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>La Fondation de la Corporation des 2335, rue Guénette Saint-Laurent QC H4R2E9</t>
+          <t>8400, 2e Avenue Montréal QC H1Z4M6</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Julie Lachance, Directrice </t>
+          <t xml:space="preserve">Monsieur Richard Wilson, Directeur exécutif </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>514-331-6571</t>
+          <t>514-722-2324</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>250 à 1 000 $</t>
+          <t>14 065 à 2 822 530 $</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>701 015 $</t>
+          <t>3 144 260 $</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>152 815 $</t>
+          <t>9 498 000 $</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Trimestrielle</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2760,34 +2700,34 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Aînés (services aux personnes âgées). Enfance et jeunesse (hébergement ou autres services). Santé (organismes spécialisés).</t>
+          <t>Causes charitables en général (OXFAM-Québec). Coopération internationale (dans les pays du Sud en donnant de l'eau potable à chacun et partout sur la planète pour les générations à venir). Éducation (développer et enseigner des pratiques d'utilisation responsable et de conservation de l'eau). Environnement (développer des pratiques d'utilisation responsable et de conservation de l'eau et programmes agricoles). Pauvreté (trouver, donner et faciliter l'accès à l'eau). Santé (améliorer la qualité de l'eau).</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (soirées-bénéfice, galas ou concerts). Activités pour les enfants et les jeunes. Bien-être des enfants. Hébergement (jeunes). Projets pour les besoins des aînés. Protection des jeunes.</t>
+          <t>Activité bénéfice annuelle (Soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, contacts ciblés, marketing lié à une cause). Coopération internationale. Environnement (développer des pratiques d'utilisation responsable et de conservation de l'eau).</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Appuie à des projets importants. Communiquer par : courrier ou fax. Décisions rendues après : 3 mois. Dons échelonnés sur plusieurs années. Favorise les organismes communautaires. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : la grande région de Montréal. Soumettre votre demande par télécopieur (ou courrier). Voir le site web</t>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec et internationales. Voir le site web.</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>j.lachance@ccam.qc.ca</t>
+          <t>richard.wilson@onedrop.org</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>www.ccam.qc.ca</t>
+          <t>www.onedrop.org</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>514-331-2045</t>
+          <t>514-723-8983</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -2800,7 +2740,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>298</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2810,61 +2750,97 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Routhier,</t>
+          <t>Fondation du Club de Hockey Canadien pour l'enfance,</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9761, boul. des Sciences Montréal QC H1J0A6</t>
+          <t>La 1275, rue Saint-Antoine O. Montréal QC H3C5L2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">F  </t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation publique </t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mme Fernande Bernier </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+          <t xml:space="preserve">Madame Bernadette Kajjouni, Directrice  </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>514-925-2511</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>250 à 47 480 $</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>900 400 $</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>5 186 055 $</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>15 février et 15 septembre</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>30 juin</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hébergement et autres services à l’enfance et à la jeu-nesse. </t>
+          <t>Causes charitables en général (organismes enregistrés). Éducation. Hôpitaux (pour enfants). Jeunesse (démunie et défavorisée du Québec, hébergement ou autres services à l'enfance et à la jeunesse). Malades chroniques. Pauvreté (améliorer la qualité de vie chez les jeunes). Santé. Services sociaux. Sports et loisirs (offrir une loge au Centre Bell pour enfants malades ou défavorisés).</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dons à des donataires reconnus qui fournissent de l'aide aux enfants défavorisés du quartier Hochelaga-Maisonneuve. </t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
+          <t>Activité bénéfice annuelle (messages publicitaires à la radio ou à la télévision, ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, sollicitation par téléphone, etc).</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur demande (sur le site Web). Limites géographiques : le Québec avec emphase sur Montréal. Voir le site web.</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>fernande.bernier@clarose.com</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Locales. </t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
+          <t>fondation@canadiens.com</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>http://fondation.canadiens.com</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>bkajjouni@centrebell.ca</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>514-989-2890</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 226 624 $</t>
-        </is>
-      </c>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2873,7 +2849,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>317</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2883,91 +2859,75 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Desjardins</t>
+          <t>Commission scolaire de Montréal,</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1, Complexe Desjardins, Tour Sud C.P. 7, succ. Desjardins Montréal QC H5B1B2</t>
+          <t>3737, rue Sherbrooke Est Montréal QC H1X3B3</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Org. philanthropique </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Louise-Marie Brousseau, Secrétariat </t>
+          <t xml:space="preserve">Madame Joëlle Laforet, Trésorière </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>514-281-7736</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1 000 à 7 750 $</t>
-        </is>
-      </c>
+          <t>514-596-6000</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>246 900 $</t>
+          <t>100 350 $</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>18 358 260 $</t>
+          <t>130 300 $</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1er mars</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>30 juin</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Arts et culture. Éducation (Bourses d'études, bourses d'entretien, etc, Préparation et formation en vue d'un emploi). Institutions d'enseignement (subventionner certaines institutions faisant au Canada des recherches dans les domaines énumérés). Recherche (dans les domaines de la coopération, l'économie, la finance, l'administration, les sciences et l'art). Services sociaux (aide à l'engagement communautaire). Universités.</t>
+          <t>Bibliothèques (collecte de volumes pour les écoles). Causes charitables en général (dons aux écoles de la Commission scolaire de Montréal). Éducation (Écoles et commissions scolaires du réseau d'enseignement public).</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Boîtes de collecte, soirées-bénéfice, galas ou concerts, campagnes de financement par la poste, programmes de dons planifiés, tournois, événements sportifs). Bourses aux particuliers (Accorder des bourses d'études et de perfectionnement, des prix ou autres formes d'aide financière à des personnes désireuses d'entreprendre ou de poursuivre des études ou des recherches dans des institutions d'enseignement). Lutte contre le décrochage scolaire ou intégration au marché du travail (Un fonds distinct a été créé pour soutenir la lutte au décrochage scolaire. Prix à des entrepreneurs dans le but de favoriser la création d'emploi).</t>
+          <t>Activité bénéfice annuelle (Dons de sociétés et commandites ciblés). Éducation.</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier, courriel, fax ou téléphone. Limites géographiques : le Québec et l'Ontario dans les régions où sont situées les Caisses Desjardins. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>louise-marie.brousseau@desjardins.com</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>www.desjardins.com/fondation</t>
-        </is>
-      </c>
+          <t>Administre ses propres programmes (les écoles de la CSM). Communiquer par : courrier. Limites géographiques : Montréal.</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>514-281-2391</t>
-        </is>
-      </c>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -2978,7 +2938,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>323</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2988,17 +2948,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Divco Foundation,</t>
+          <t xml:space="preserve">Concessionnaires d'automobiles de Montréal,  </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8300, boul. Pie IX Montréal QC H1Z4E8</t>
+          <t>La Fondation de la Corporation des 2335, rue Guénette Saint-Laurent QC H4R2E9</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3008,61 +2968,69 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Sam Aberman, Director </t>
+          <t xml:space="preserve">Madame Julie Lachance, Directrice </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>514-593-8888</t>
+          <t>514-331-6571</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>150 à 154 935 $</t>
+          <t>250 à 1 000 $</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>345 400 $</t>
+          <t>701 015 $</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>155 900 $</t>
+          <t>152 815 $</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>Trimestrielle</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>30 novembre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Coopération internationale. Éducation. Hôpitaux. Organismes religieux (juifs, lieux de culte, congrégations, paroisses, diocèses, etc). Santé (Hôpitaux, Organismes de santé spécialisés). Santé mentale (Organismes de santé spécialisés). Services sociaux. Sports et loisirs. Universités.</t>
+          <t>Aînés (services aux personnes âgées). Enfance et jeunesse (hébergement ou autres services). Santé (organismes spécialisés).</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Coopération internationale. Éducation. Fondations hospitalières. Organismes (communautaires juifs). Santé.</t>
+          <t>Activité bénéfice annuelle (soirées-bénéfice, galas ou concerts). Activités pour les enfants et les jeunes. Bien-être des enfants. Hébergement (jeunes). Projets pour les besoins des aînés. Protection des jeunes.</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : le Québec avec emphase sur Montréal et internationales.</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+          <t>Administre ses propres programmes. Appuie à des projets importants. Communiquer par : courrier ou fax. Décisions rendues après : 3 mois. Dons échelonnés sur plusieurs années. Favorise les organismes communautaires. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : la grande région de Montréal. Soumettre votre demande par télécopieur (ou courrier). Voir le site web</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>j.lachance@ccam.qc.ca</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>www.ccam.qc.ca</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>514-593-4828</t>
+          <t>514-331-2045</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -3075,7 +3043,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>344</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3085,89 +3053,61 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation Tremblant </t>
+          <t>Routhier,</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C.P. 4471 Mont-Tremblant QC J8E1A1</t>
+          <t>9761, boul. des Sciences Montréal QC H1J0A6</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation publique </t>
-        </is>
-      </c>
+          <t xml:space="preserve">F  </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Thérèse Barrette, Secrétaire-Trésorière </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>819-425-2837</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>700 à 2 000 $</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>294 535 $</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>1 157 300 $</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Mme Fernande Bernier </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Alimentation (santé; programme déjeuners et Boîtes à lunch dans les écoles, achat de vêtements, articles scolaires etc). Causes charitables en général (organismes enregistrés oeuvrant auprès des jeunes défavorisés de la MRC Laurentides). Centres de plein air (et camps d'été; colonies de vacances). Décrochage scolaire. Éducation. Famille (counselling et soutien). Jeunesse (démunie de la MRC des Laurentides). Services sociaux. Sports et loisirs (fournir des équipements sportifs pour l'aide à la réussite scolaire). Toxicomanie (contrer l'usage de la drogue chez les adolescents).</t>
+          <t xml:space="preserve">Hébergement et autres services à l’enfance et à la jeu-nesse. </t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Ventes aux enchères). Écoles (pour le programme Boîtes à Lunch). Fondations Cegeps. Fonds d'équipement (sportif pour diminuer le décrochage scolaire).</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou courriel. Favorise les organismes communautaires. Limites géographiques : la MRC des Laurentides. Voir le site web.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Dons à des donataires reconnus qui fournissent de l'aide aux enfants défavorisés du quartier Hochelaga-Maisonneuve. </t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>info@fondationtremblant.com</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>http://fondationtremblant.com</t>
-        </is>
-      </c>
+          <t>fernande.bernier@clarose.com</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Locales. </t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 226 624 $</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -3176,7 +3116,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>373</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3186,44 +3126,52 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fondation Bon départ</t>
+          <t>Desjardins</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>189, boul. Hymus, bur. 601 Pointe-Claire, QC H9R1E9</t>
+          <t>1, Complexe Desjardins, Tour Sud C.P. 7, succ. Desjardins Montréal QC H5B1B2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">F </t>
+          <t>B</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madame Louise-Marie Brousseau, Secrétariat </t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>514 693.6456</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>514-281-7736</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1 000 à 7 750 $</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1 140 350 $</t>
+          <t>246 900 $</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>7 606 800 $</t>
+          <t>18 358 260 $</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>En tout temps.</t>
+          <t>1er mars</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3233,30 +3181,34 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bien être des enfants. Appui des enfants et des adultes vivant en situation de vulnérabilité en offrant des séjours de répit et de camps de vacances à sa Base de plein air Bon départ. </t>
+          <t>Arts et culture. Éducation (Bourses d'études, bourses d'entretien, etc, Préparation et formation en vue d'un emploi). Institutions d'enseignement (subventionner certaines institutions faisant au Canada des recherches dans les domaines énumérés). Recherche (dans les domaines de la coopération, l'économie, la finance, l'administration, les sciences et l'art). Services sociaux (aide à l'engagement communautaire). Universités.</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soutient également différents organismes communau-taires, afin d’améliorer la qualité de vie des enfants et de leurs familles, no-tamment en contribuant au développement de saines habitudes de vie et à leur mieux-être. </t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+          <t>Activité bénéfice annuelle (Boîtes de collecte, soirées-bénéfice, galas ou concerts, campagnes de financement par la poste, programmes de dons planifiés, tournois, événements sportifs). Bourses aux particuliers (Accorder des bourses d'études et de perfectionnement, des prix ou autres formes d'aide financière à des personnes désireuses d'entreprendre ou de poursuivre des études ou des recherches dans des institutions d'enseignement). Lutte contre le décrochage scolaire ou intégration au marché du travail (Un fonds distinct a été créé pour soutenir la lutte au décrochage scolaire. Prix à des entrepreneurs dans le but de favoriser la création d'emploi).</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Administre ses propres programmes. Communiquer par : courrier, courriel, fax ou téléphone. Limites géographiques : le Québec et l'Ontario dans les régions où sont situées les Caisses Desjardins. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>louise-marie.brousseau@desjardins.com</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>http://www.fondationbondepart.ca/</t>
+          <t>www.desjardins.com/fondation</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> le Québec. </t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>514 693.6460 1 855 693.6555</t>
+          <t>514-281-2391</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -3269,7 +3221,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>392</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3279,47 +3231,47 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Gazette</t>
+          <t>Divco Foundation,</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A Division of Southam 1010, rue Ste-Catherine O., bur. 200 Montréal QC H3B5L1</t>
+          <t>8300, boul. Pie IX Montréal QC H1Z4E8</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Eileen Flood, Coordinator </t>
+          <t xml:space="preserve">Mr Sam Aberman, Director </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>514-987-2210</t>
+          <t>514-593-8888</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>100 à 26 700 $</t>
+          <t>150 à 154 935 $</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>49 700 $</t>
+          <t>345 400 $</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>49 700 $</t>
+          <t>155 900 $</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3329,35 +3281,31 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>30 novembre</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Centraide. Handicapés physiques et intellectuels. Malades chroniques (du cancer, diabète et Alzheimer). Pauvreté (logement pour personnes à faible revenu/ âgées/). Santé. Santé mentale (organismes spécialisés). Services sociaux.</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
+          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Coopération internationale. Éducation. Hôpitaux. Organismes religieux (juifs, lieux de culte, congrégations, paroisses, diocèses, etc). Santé (Hôpitaux, Organismes de santé spécialisés). Santé mentale (Organismes de santé spécialisés). Services sociaux. Sports et loisirs. Universités.</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Coopération internationale. Éducation. Fondations hospitalières. Organismes (communautaires juifs). Santé.</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>eflood@thegazette.canwest.com</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>www.canada.com/montreal/montrealgazette</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : le Québec avec emphase sur Montréal et internationales.</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>514-987-2600</t>
+          <t>514-593-4828</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -3370,7 +3318,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>473</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3380,47 +3328,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GlaxoSmithKline Foundation,</t>
+          <t xml:space="preserve">Fondation Tremblant </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7333 Mississauga Rd North Mississauga ON L5N6L4</t>
+          <t>C.P. 4471 Mont-Tremblant QC J8E1A1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Paul Lirette, President &amp; Director </t>
+          <t xml:space="preserve">Madame Thérèse Barrette, Secrétaire-Trésorière </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>905-819-3000</t>
+          <t>819-425-2837</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20 à 175 000 $</t>
+          <t>700 à 2 000 $</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>586 400 $</t>
+          <t>294 535 $</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>31 755 $</t>
+          <t>1 157 300 $</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -3435,32 +3383,32 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général (organismes canadiens enregistrés). Centraide. Éducation. Environnement. Hôpitaux (Établissements de soins infirmiers, hospices). Maladies (VIH/Sida, asthme, cancer, diabète et maladies pulmonaires et respiratoires). Santé (promotion). Organismes de santé spécialisés. Santé mentale. Sciences et sciences sociales. Service humanitaire. Services communautaires (et programmes). Services sociaux. Soins palliatifs. Sports et loisirs.</t>
+          <t>Alimentation (santé; programme déjeuners et Boîtes à lunch dans les écoles, achat de vêtements, articles scolaires etc). Causes charitables en général (organismes enregistrés oeuvrant auprès des jeunes défavorisés de la MRC Laurentides). Centres de plein air (et camps d'été; colonies de vacances). Décrochage scolaire. Éducation. Famille (counselling et soutien). Jeunesse (démunie de la MRC des Laurentides). Services sociaux. Sports et loisirs (fournir des équipements sportifs pour l'aide à la réussite scolaire). Toxicomanie (contrer l'usage de la drogue chez les adolescents).</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Dons jumelés. Éducation. Projets spéciaux (locaux). Santé. Sciences. Soins palliatifs.</t>
+          <t>Activité bénéfice annuelle (Ventes aux enchères). Écoles (pour le programme Boîtes à Lunch). Fondations Cegeps. Fonds d'équipement (sportif pour diminuer le décrochage scolaire).</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier seulement. Décisions rendues après : 8 semaines. Formulaire disponible sur le site web. Joindre le numéro d’enregistrement de charité. Limites géographiques : le Canada avec emphase sur Ville St-Laurent Qc pour le projet sur le Sida; écrire au Manager HIV/Aids Community Relations, 8455, Rte Transcanadienne, St-Laurent H4S 1Z1; Tél. : 514-738-8886 - Fax : 514-956-3188. Soumettre d'abord un résumé du projet (les projets compatibles avec les objectifs de la Fondation). Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
+          <t>Communiquer par : courrier ou courriel. Favorise les organismes communautaires. Limites géographiques : la MRC des Laurentides. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>info@fondationtremblant.com</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>www.gsk.ca/french/html/role-social/gsk- foundation.html</t>
+          <t>http://fondationtremblant.com</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>905-819-3348</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -3471,7 +3419,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>481</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3481,89 +3429,77 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Home Depot Canada Foundation,</t>
+          <t>Fondation Bon départ</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1 Concorde Gate, Suite 900 Toronto ON M3C4H9</t>
+          <t>189, boul. Hymus, bur. 601 Pointe-Claire, QC H9R1E9</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mrs Pamela O'Rourke, Vice-chair </t>
-        </is>
-      </c>
+          <t xml:space="preserve">Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>416-609-0852</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>800 à 830 000 $</t>
-        </is>
-      </c>
+          <t>514 693.6456</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2 958 745 $</t>
+          <t>1 140 350 $</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1 980 000 $</t>
+          <t>7 606 800 $</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>En tout temps.</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>30 décembre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Aide aux sinistrés (désastres naturels). Causes charitables en général (organismes enregistrés). Environnement. Maisons de transition. Maisons d'hébergement. Pauvreté. Services sociaux.</t>
+          <t xml:space="preserve">Bien être des enfants. Appui des enfants et des adultes vivant en situation de vulnérabilité en offrant des séjours de répit et de camps de vacances à sa Base de plein air Bon départ. </t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés). Campagne de financement.</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur site web. Limites géographiques : le Canada. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>canadafoundation@homedepot.com</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Soutient également différents organismes communau-taires, afin d’améliorer la qualité de vie des enfants et de leurs familles, no-tamment en contribuant au développement de saines habitudes de vie et à leur mieux-être. </t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>www.homedepot.ca/foundation</t>
+          <t>http://www.fondationbondepart.ca/</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> le Québec. </t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>416-412-6792</t>
+          <t>514 693.6460 1 855 693.6555</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -3576,7 +3512,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>525</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3586,89 +3522,85 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honda Canada Foundation </t>
+          <t>Gazette</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>180 Honda boul. Markham ON L6C0H9</t>
+          <t>A Division of Southam 1010, rue Ste-Catherine O., bur. 200 Montréal QC H3B5L1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Eleanor Hendrickson </t>
+          <t xml:space="preserve">Mrs Eileen Flood, Coordinator </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>905-888-8110</t>
+          <t>514-987-2210</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5 000 à 100 000 $</t>
+          <t>100 à 26 700 $</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>250 000 $</t>
+          <t>49 700 $</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>8 883 500 $</t>
+          <t>49 700 $</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1 février, 1 mai, 1 août et  1 novembre</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>31 mars</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes canadiens enregistrés qui partagent les critères de la Fondation). Développement social. Éducation (études élémentaires, secondaires, collégiales et universitaires). Environnement (humain et naturel). Jeunesse. Recherche (en ingénierie). Science et technologie (en ingénierie et éducation). Services sociaux.</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Dons jumelés. Fonds de fonctionnement ou d'opération. Fonds pour programmes et services. Projets de recherches.</t>
-        </is>
-      </c>
+          <t>Causes charitables en général. Centraide. Handicapés physiques et intellectuels. Malades chroniques (du cancer, diabète et Alzheimer). Pauvreté (logement pour personnes à faible revenu/ âgées/). Santé. Santé mentale (organismes spécialisés). Services sociaux.</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier. Formulaire disponible sur demande (sur le site web seulement). Limites géographiques : le Canada. Voir le site web.</t>
+          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Voir le site web.</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>eleanor_hendrickson@ch.honda.com</t>
+          <t>eflood@thegazette.canwest.com</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>www.hondacanadafoundation.ca/fr</t>
+          <t>www.canada.com/montreal/montrealgazette</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>416-865-7048</t>
+          <t>514-987-2600</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -3681,7 +3613,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>553</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3691,17 +3623,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hydro Québec pour l'Environnement,</t>
+          <t>GlaxoSmithKline Foundation,</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>75, boul. René-Lévesque O., 2ième étage Montréal QC H2Z1A4</t>
+          <t>7333 Mississauga Rd North Mississauga ON L5N6L4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3711,32 +3643,32 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Carlo Gagliardi, Directeur </t>
+          <t xml:space="preserve">Mr Paul Lirette, President &amp; Director </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>514-289-5384</t>
+          <t>905-819-3000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6 000 à 66 000 $</t>
+          <t>20 à 175 000 $</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>393 900 $</t>
+          <t>586 400 $</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1 013 900 $</t>
+          <t>31 755 $</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1er février et 15 septembre</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3746,34 +3678,30 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Environnement (protéger, restaurer et mettre en valeur des milieux naturels). Faune (flore et habitats naturels; la mise en valeur).</t>
+          <t>Arts et culture. Causes charitables en général (organismes canadiens enregistrés). Centraide. Éducation. Environnement. Hôpitaux (Établissements de soins infirmiers, hospices). Maladies (VIH/Sida, asthme, cancer, diabète et maladies pulmonaires et respiratoires). Santé (promotion). Organismes de santé spécialisés. Santé mentale. Sciences et sciences sociales. Service humanitaire. Services communautaires (et programmes). Services sociaux. Soins palliatifs. Sports et loisirs.</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Environnement (soutenir les besoins locaux et communautaires associés à l'environnement, utilisation des ressources naturelles).</t>
+          <t>Dons jumelés. Éducation. Projets spéciaux (locaux). Santé. Sciences. Soins palliatifs.</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Joindre la liste des membres du c.a. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Québec. Soumettre d'abord un résumé du projet (1 à 2 pages en 2 copies et un dossier de candidature). Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>fondation-environnement@hydro.qc.ca</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier seulement. Décisions rendues après : 8 semaines. Formulaire disponible sur le site web. Joindre le numéro d’enregistrement de charité. Limites géographiques : le Canada avec emphase sur Ville St-Laurent Qc pour le projet sur le Sida; écrire au Manager HIV/Aids Community Relations, 8455, Rte Transcanadienne, St-Laurent H4S 1Z1; Tél. : 514-738-8886 - Fax : 514-956-3188. Soumettre d'abord un résumé du projet (les projets compatibles avec les objectifs de la Fondation). Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>http://www.hydroquebec.com/fondation- environnement/</t>
+          <t>www.gsk.ca/french/html/role-social/gsk- foundation.html</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>514-289-2840</t>
+          <t>905-819-3348</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -3786,7 +3714,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3796,55 +3724,91 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>La Fondation IKEA,</t>
+          <t>Home Depot Canada Foundation,</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>P.O. Box 11 134 2301 EC Leiden The Netherlands</t>
+          <t>1 Concorde Gate, Suite 900 Toronto ON M3C4H9</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t>B</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mrs Pamela O'Rourke, Vice-chair </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>416-609-0852</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>800 à 830 000 $</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2 958 745 $</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1 980 000 $</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>30 décembre</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bien être des enfants. Environnement. Pauvreté. Santé Offrir aux enfants un avenir plus prometteur par la santé et un meilleur envi-ronnement global. </t>
+          <t>Aide aux sinistrés (désastres naturels). Causes charitables en général (organismes enregistrés). Environnement. Maisons de transition. Maisons d'hébergement. Pauvreté. Services sociaux.</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soutient des familles en milieu défavorisé tout en proté-geant l’environnement. </t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+          <t>Activité bénéfice annuelle (Soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés). Campagne de financement.</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur site web. Limites géographiques : le Canada. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>canadafoundation@homedepot.com</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>https://ikeafoundation.org/</t>
+          <t>www.homedepot.ca/foundation</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> internationales. </t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>416-412-6792</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -3855,7 +3819,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>614</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3865,85 +3829,89 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Intact Foundation / Fondation Intact </t>
+          <t xml:space="preserve">Honda Canada Foundation </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>700, University Ave, bur. 1500 Toronto ON M5G0A1</t>
+          <t>180 Honda boul. Markham ON L6C0H9</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Sylvia Gelissen, Director </t>
+          <t xml:space="preserve">Mrs Eleanor Hendrickson </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>416-440-8744</t>
+          <t>905-888-8110</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>250 à 36 460 $</t>
+          <t>5 000 à 100 000 $</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>3 435 900 $</t>
+          <t>250 000 $</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2 669 600 $</t>
+          <t>8 883 500 $</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>1 février, 1 mai, 1 août et  1 novembre</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>31 mars</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général. Centraide. Décrochage scolaire. Éducation. Enfance et jeunesse. Environnement. Exclusion (itinérants). Famille (counselling, etc). Femmes et causes féminines. Handicapés physiques et intellectuels (autistes). Hôpitaux. Jeunesse. Maladies (diabète, cancer, alzheimer et autres). Pauvreté. Santé mentale. Services sociaux. Toxicomanie. Universités.</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr"/>
+          <t>Causes charitables en général (organismes canadiens enregistrés qui partagent les critères de la Fondation). Développement social. Éducation (études élémentaires, secondaires, collégiales et universitaires). Environnement (humain et naturel). Jeunesse. Recherche (en ingénierie). Science et technologie (en ingénierie et éducation). Services sociaux.</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Dons jumelés. Fonds de fonctionnement ou d'opération. Fonds pour programmes et services. Projets de recherches.</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Appuie à des projets importants (le programme Atout Coeur au Canada, implication sociale). Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec. Voir le site web.</t>
+          <t>Communiquer par : courrier. Formulaire disponible sur demande (sur le site web seulement). Limites géographiques : le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>yves.poulin@intact.net</t>
+          <t>eleanor_hendrickson@ch.honda.com</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>www.intact.net</t>
+          <t>www.hondacanadafoundation.ca/fr</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>416-440-8970</t>
+          <t>416-865-7048</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -3956,7 +3924,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>630</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3966,52 +3934,52 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jarislowsky Fraser Donor Advised Foundation,</t>
+          <t>Hydro Québec pour l'Environnement,</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>des Donateurs Jarislowsky Fraser 1010, rue Sherbrooke O., bur. 2005 Montréal QC H3A2R7</t>
+          <t>75, boul. René-Lévesque O., 2ième étage Montréal QC H2Z1A4</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Erin O'Brien, Secretariat </t>
+          <t xml:space="preserve">Monsieur Carlo Gagliardi, Directeur </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>514-842-2727</t>
+          <t>514-289-5384</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>250 à 910 300 $</t>
+          <t>6 000 à 66 000 $</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1 014 200 $</t>
+          <t>393 900 $</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2 959 700 $</t>
+          <t>1 013 900 $</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>1er février et 15 septembre</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4021,34 +3989,34 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Bibliothèques (librairies). Causes charitables en général (organismes enregistrés). Maladies. Musique. Organismes religieux. Services sociaux. Universités.</t>
+          <t>Environnement (protéger, restaurer et mettre en valeur des milieux naturels). Faune (flore et habitats naturels; la mise en valeur).</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondations hospitalières. </t>
+          <t>Environnement (soutenir les besoins locaux et communautaires associés à l'environnement, utilisation des ressources naturelles).</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec et l'Ontario. Voir le site web.</t>
+          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Joindre la liste des membres du c.a. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Québec. Soumettre d'abord un résumé du projet (1 à 2 pages en 2 copies et un dossier de candidature). Voir le site web.</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>donor-foundation@jfl.ca</t>
+          <t>fondation-environnement@hydro.qc.ca</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>www.jfl.ca/fondation/index.htm</t>
+          <t>http://www.hydroquebec.com/fondation- environnement/</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>514-842-1882</t>
+          <t>514-289-2840</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -4061,7 +4029,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>639</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4071,87 +4039,55 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Coutu,</t>
+          <t>La Fondation IKEA,</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1374, av. du Mont-Royal E., bur. 104 Montréal QC H2J1Y7</t>
+          <t>P.O. Box 11 134 2301 EC Leiden The Netherlands</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Madame Marie-Josée Coutu, Présidente </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>514-527-4510</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>250 à 1 083 120 $</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>8 524 975 $</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>544 584 600 $</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>28 février</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Centraide. Coopération internationale (Missions et les pays en voie de développement). Éducation. Enfance et jeunesse. Enfants maltraîtés / abusés (au Québec et au Canada). Environnement. Femmes et causes féminines (femmes maltraîtées). Jeunesse. Organismes religieux. Pauvreté (personnes démunies). Santé. Sciences et sciences sociales. Services sociaux (internationaux). Sports et loisirs. Toxicomanie (prévention et la lutte contre l'usage des drogues au Québec et au Canada). Universités.</t>
+          <t xml:space="preserve">Bien être des enfants. Environnement. Pauvreté. Santé Offrir aux enfants un avenir plus prometteur par la santé et un meilleur envi-ronnement global. </t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Coopération internationale. Projets spéciaux.</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada avec emphase sur le Québec et internationales.</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>lyne.ofarell@sympatico.ca</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t xml:space="preserve">Soutient des familles en milieu défavorisé tout en proté-geant l’environnement. </t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>https://ikeafoundation.org/</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>514-527-4917</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> internationales. </t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -4162,7 +4098,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>641</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4172,12 +4108,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>KPMG Foundation,</t>
+          <t>Imperial Tobacco Montréal,</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>393 University Ave, Suite 1100 Toronto ON M5G2N9</t>
+          <t>d' 3711, rue St-Antoine O. Montréal QC H4C3P6</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4187,32 +4123,32 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fonds d’employés </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Covy C. Maree Mootoo, Manager / Partner  Accounts </t>
+          <t xml:space="preserve">Monsieur Gasper Spagnolo, Président </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>416-777-3144</t>
+          <t>514-932-6161</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>500 à 50 000 $</t>
+          <t>1 000 à 3 000 $</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1 378 900 $</t>
+          <t>25 000 $</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>9 700 $</t>
+          <t>17 100 $</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4227,37 +4163,33 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Arts et culture. Éducation. Enfance et jeunesse. Institutions d'enseignement (post-secondaire). Santé (soins). Services communautaires. Universités (canadiennes).</t>
+          <t>Causes charitables en général (organismes enregistrés). Centraide (du Grand Montréal). Santé. Santé mentale. Services sociaux.</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Amélioration de la qualité de vie (en soins de santé pour les enfants et les jeunes en milieu communautaire et artistique). Dons jumelés (avec les employés pour les institutions post-secondaires).</t>
+          <t>Campagne de financement. Dons jumelés (avec les employés). Organismes (communautaires).</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>cmareemootoo@kpmg.ca</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>www.kpmg.ca/foundation</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier ou fax. Favorise les organismes communautaires. Limites géographiques : Montréal.</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>416-777-8096</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+          <t>514-932-3767</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>2354</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -4267,7 +4199,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>656</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4277,55 +4209,87 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fondation L’Oréal Canada</t>
+          <t xml:space="preserve">Intact Foundation / Fondation Intact </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1500, Boul. Robert-Bourassa, bur. 600 Montréal QC  H3A3S8</t>
+          <t>700, University Ave, bur. 1500 Toronto ON M5G0A1</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">F  </t>
+          <t>F</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+          <t xml:space="preserve"> Fondation privée </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mrs Sylvia Gelissen, Director </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>416-440-8744</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>250 à 36 460 $</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>3 435 900 $</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2 669 600 $</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Femmes touchées par la maladie, la précarité, l'isolement, à renouer avec l'estime de soi, à retrouver une féminité malmenée, à se battre pour continuer leur vie. </t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par son programme de formation aux métiers de la beauté « Pour les femmes et la Science », la Fondation L’Oréal suscite les vocations des étudiantes dès le lycée, encourage les chercheuses et récompense l’excellence dans le domaine de la beauté des femmes. </t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+          <t>Arts et culture. Causes charitables en général. Centraide. Décrochage scolaire. Éducation. Enfance et jeunesse. Environnement. Exclusion (itinérants). Famille (counselling, etc). Femmes et causes féminines. Handicapés physiques et intellectuels (autistes). Hôpitaux. Jeunesse. Maladies (diabète, cancer, alzheimer et autres). Pauvreté. Santé mentale. Services sociaux. Toxicomanie. Universités.</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Appuie à des projets importants (le programme Atout Coeur au Canada, implication sociale). Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>yves.poulin@intact.net</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>https://www.loreal.ca/fr-ca/foundationlanding/foundation-canada</t>
+          <t>www.intact.net</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> internationales. </t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>416-440-8970</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -4336,7 +4300,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>676</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4346,55 +4310,91 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fondation La Capitale</t>
+          <t>Jarislowsky Fraser Donor Advised Foundation,</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>625, rue Jacques-Parizeau, C.P. 16 040 Québec QC  G1R2G5</t>
+          <t>des Donateurs Jarislowsky Fraser 1010, rue Sherbrooke O., bur. 2005 Montréal QC H3A2R7</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">F  </t>
+          <t>B</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+          <t xml:space="preserve"> Fondation publique </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mrs Erin O'Brien, Secretariat </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>514-842-2727</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>250 à 910 300 $</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1 014 200 $</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2 959 700 $</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L’engagement auprès des personnes dans le besoin et une contribution concrète au mieux-être de la communauté.  </t>
+          <t>Bibliothèques (librairies). Causes charitables en général (organismes enregistrés). Maladies. Musique. Organismes religieux. Services sociaux. Universités.</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Fondation se concentrent principalement dans les trois créneaux suivants : les personnes vivant avec un trouble du spectre de l’autisme, les personnes ayant une déficience intellectuelle et les aînés vulné-rables. </t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+          <t xml:space="preserve">Fondations hospitalières. </t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec et l'Ontario. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>donor-foundation@jfl.ca</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>https://www.lacapitale.com/fr/a-propos/fondation</t>
+          <t>www.jfl.ca/fondation/index.htm</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>le Québec.</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>514-842-1882</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>677</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4415,12 +4415,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation Scoute La Cordée </t>
+          <t>Coutu,</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2159, rue Ste-Catherine Est Montréal QC H2K2H9</t>
+          <t>1374, av. du Mont-Royal E., bur. 104 Montréal QC H2J1Y7</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4430,32 +4430,32 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Michel Denis, Secrétaire </t>
+          <t xml:space="preserve">Madame Marie-Josée Coutu, Présidente </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>514-524-1106</t>
+          <t>514-527-4510</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>330 370 $</t>
+          <t>250 à 1 083 120 $</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>330 370 $</t>
+          <t>8 524 975 $</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>7 817 650 $</t>
+          <t>544 584 600 $</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -4465,39 +4465,35 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>15 octobre</t>
+          <t>28 février</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Éducation (promouvoir, développer et favoriser l'éducation de la jeunesse scoute du diocèse de Montréal).</t>
+          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Centraide. Coopération internationale (Missions et les pays en voie de développement). Éducation. Enfance et jeunesse. Enfants maltraîtés / abusés (au Québec et au Canada). Environnement. Femmes et causes féminines (femmes maltraîtées). Jeunesse. Organismes religieux. Pauvreté (personnes démunies). Santé. Sciences et sciences sociales. Services sociaux (internationaux). Sports et loisirs. Toxicomanie (prévention et la lutte contre l'usage des drogues au Québec et au Canada). Universités.</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers (bourse Aurèle Daoust aux Scouts et Guides de Montréal). Dons différés et planifiés (aux scouts et guides de Montréal).</t>
+          <t>Coopération internationale. Projets spéciaux.</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Limites géographiques : Montréal. Voir le site web.</t>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada avec emphase sur le Québec et internationales.</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>fondation@lacordee.com</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>www.lacordee.com</t>
-        </is>
-      </c>
+          <t>lyne.ofarell@sympatico.ca</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>514-524-5081</t>
+          <t>514-527-4917</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -4510,7 +4506,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4520,43 +4516,47 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cimon Lebel,</t>
+          <t>KPMG Foundation,</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>54, rue Amyot Rivière-du-Loup QC G5R3E9</t>
+          <t>393 University Ave, Suite 1100 Toronto ON M5G2N9</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Myriam Andrée Lebel, Présidente </t>
+          <t xml:space="preserve">Mr Covy C. Maree Mootoo, Manager / Partner  Accounts </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>418-867-1695</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>416-777-3144</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>500 à 50 000 $</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>5 720 $</t>
+          <t>1 378 900 $</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>467 660 $</t>
+          <t>9 700 $</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4571,26 +4571,34 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Causes humanitaires (Soutien aux personnes atteintes du cancer et leur famille; transport, hébergement, repas; assure en tout ou en partie les déplacements pour les soins médicaux reliés au cancer et pour la personne accompagnatrice). Malades chroniques (du cancer). Santé (traitement pour le cancer).</t>
+          <t>Arts et culture. Éducation. Enfance et jeunesse. Institutions d'enseignement (post-secondaire). Santé (soins). Services communautaires. Universités (canadiennes).</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Tournois, événements sportifs). Campagne de financement (Tournoi de golf, souper théâtre et tirage).</t>
+          <t>Amélioration de la qualité de vie (en soins de santé pour les enfants et les jeunes en milieu communautaire et artistique). Dons jumelés (avec les employés pour les institutions post-secondaires).</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : Bas St-Laurent, Gaspésie-Les-Ïles, Côte-Nord et le Nord-Ouest du Nouveau-Brunswick.</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>cmareemootoo@kpmg.ca</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>www.kpmg.ca/foundation</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>418-862-5054</t>
+          <t>416-777-8096</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -4603,7 +4611,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>710</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4613,68 +4621,52 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fondation Raymond James Canada</t>
+          <t>Fondation L’Oréal Canada</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2100 – 925 West Georgia Street Vancouver, BC V6C3L2</t>
+          <t>1500, Boul. Robert-Bourassa, bur. 600 Montréal QC  H3A3S8</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">B  </t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mr. Paul Allison, Director &amp; Chairman </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>604-659-8259</t>
-        </is>
-      </c>
+          <t xml:space="preserve">F  </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>3 003 590 $</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et jeunesse. Promotion et protection de la santé, y compris des services de premiers soins et d'information. Fonds de secours. Secours aux sinistrés. </t>
+          <t xml:space="preserve"> Femmes touchées par la maladie, la précarité, l'isolement, à renouer avec l'estime de soi, à retrouver une féminité malmenée, à se battre pour continuer leur vie. </t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Banques alimentaires ou vestimentaires, soupes popu-laires, auberges. Bénévolat par le personnel. Hébergement ou autres services à l'enfance et à la jeunesse.  </t>
+          <t xml:space="preserve">Par son programme de formation aux métiers de la beauté « Pour les femmes et la Science », la Fondation L’Oréal suscite les vocations des étudiantes dès le lycée, encourage les chercheuses et récompense l’excellence dans le domaine de la beauté des femmes. </t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>RJCFoundation@raymondjames.ca</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>https://rjcfoundation.ca/fr</t>
+          <t>https://www.loreal.ca/fr-ca/foundationlanding/foundation-canada</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le Canada.</t>
+          <t xml:space="preserve"> internationales. </t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -4688,7 +4680,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4698,12 +4690,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mackenzie Financial Charitable Foundation </t>
+          <t xml:space="preserve">Hudson's Bay Company Employees Charitable Fund </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>180 Queen St. W., Suite 1600 Toronto ON M5V3K1</t>
+          <t>c/o Hudson's Bay Co. 401 Bay Street, Suite 1102 Toronto ON M5H2Y4</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4713,30 +4705,34 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Fonds d’employés </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Bradley Offman, Director &amp; President </t>
+          <t xml:space="preserve">Mrs Karina Dewi, Administrator </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>800-387-0614</t>
+          <t>416-861-4185</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>5 000 à 100 000 $</t>
+          <t>200 $</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>825 500 $</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>200 $</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>60 $</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
           <t>En tout temps</t>
@@ -4749,34 +4745,34 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Causes charitables en général (enfance et jeunesse à risque). Centraide. Éducation. Enfance et jeunesse (hébergement ou autres services). Pauvreté. Santé (enfants, jeunes et adultes malades, services et besoins). Santé mentale (organismes de santé spécialisés). Services sociaux.</t>
+          <t>Causes charitables en général. Centraide.</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Amélioration de la qualité de vie (démunis). Programmes de recrutement et de formation de bénévoles.</t>
+          <t>Dons jumelés (avec les employés).</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
+          <t>Communiquer par : courrier seulement. Limites géographiques: le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>service@mackenzieinvestments.com</t>
+          <t>karina.dewi@hbc.com</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>https://www.mackenzieinvestments.com/en/about/ charitable-foundation/who-we-are</t>
+          <t>www.hbc.com</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>866-766-6623</t>
+          <t>416-861-6248</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -4789,7 +4785,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>718</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4799,83 +4795,55 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>McCain Foundation,</t>
+          <t>Fondation La Capitale</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>8800 Main Street Florenceville-Bristol NB E7L1B2</t>
+          <t>625, rue Jacques-Parizeau, C.P. 16 040 Québec QC  G1R2G5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">F  </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mrs Ann H. McCain-Evans, Chairperson </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>506-392-3114</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>100 à 250 000 $</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>1 518 500 $</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>34 554 500 $</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>1er mars</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Agriculture. Arts et culture (pour enfants). Arts visuels (sculpture, peinture, gravure). Collèges communautaires. Éducation (préscolaire aux adultes, en arts et école des arts, Universités et collèges, Bourses d'études, bourses d'entretien, etc). Enfants (développement et bien-être; installations récréatives communautaires, etc). Environnement. Hôpitaux. Musées / Centre d’interprétation. Organismes religieux. Recherche (en éducation et médecine). Santé. Sciences et sciences sociales. Services sociaux. Sports et loisirs. Universités (canadiennes).</t>
+          <t xml:space="preserve"> L’engagement auprès des personnes dans le besoin et une contribution concrète au mieux-être de la communauté.  </t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bourses d'études (écoles académiques). Fonds de construction / de capitalisation. Fonds pour programmes et services. Organismes (communautaires). Prix. Projets de recherches. Projets spéciaux. Technologie informatique.</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou fax. Formulaire disponible sur demande (pour les programmes universitaires). Limites géographiques : le Canada.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">La Fondation se concentrent principalement dans les trois créneaux suivants : les personnes vivant avec un trouble du spectre de l’autisme, les personnes ayant une déficience intellectuelle et les aînés vulné-rables. </t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>https://www.lacapitale.com/fr/a-propos/fondation</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>506-392-0816</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>le Québec.</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -4886,7 +4854,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>719</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4896,47 +4864,47 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">McCarthy Tétrault Foundation </t>
+          <t xml:space="preserve">Fondation Scoute La Cordée </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Toronto Dominion Bank Tower, Suite 5300 P.O. Box 48 Toronto ON M5K1E6</t>
+          <t>2159, rue Ste-Catherine Est Montréal QC H2K2H9</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Nigel Johnston, Director-Treasurer </t>
+          <t xml:space="preserve">Monsieur Michel Denis, Secrétaire </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>416-362-1812</t>
+          <t>514-524-1106</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>170 à 398 000 $</t>
+          <t>330 370 $</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>994 700 $</t>
+          <t>330 370 $</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1 169 000 $</t>
+          <t>7 817 650 $</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4946,31 +4914,39 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>15 octobre</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes de charité et culturels enregistrés). Centraide. Éducation (écoles, Universités et collèges). Femmes et causes féminines. Hôpitaux. Santé. Services sociaux (Agences, aide et services). Universités (Faculté de droit).</t>
+          <t>Éducation (promouvoir, développer et favoriser l'éducation de la jeunesse scoute du diocèse de Montréal).</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Fondations hospitalières.</t>
+          <t>Bourses aux particuliers (bourse Aurèle Daoust aux Scouts et Guides de Montréal). Dons différés et planifiés (aux scouts et guides de Montréal).</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Limites géographiques : Montréal. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>fondation@lacordee.com</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>www.lacordee.com</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>416-868-0673</t>
+          <t>514-524-5081</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -4983,7 +4959,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>754</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4993,77 +4969,77 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>McKesson,</t>
+          <t>Cimon Lebel,</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8625, rte Transcanadienne Saint-Laurent QC H4S1Z6</t>
+          <t>54, rue Amyot Rivière-du-Loup QC G5R3E9</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Danièle Dufour, Directrice des  communications corp. </t>
+          <t xml:space="preserve">Madame Myriam Andrée Lebel, Présidente </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>514-745-2100</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>6 000 à 25 000 $</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>418-867-1695</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>5 720 $</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>467 660 $</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes enregistrés et les OBNL ayant pour objectifs la santé des enfants et des jeunes). Centraide. Éducation (enfants et jeunes et études supérieures). Santé (enfants et jeunes). Santé mentale (enfants). Services sociaux.</t>
+          <t>Causes humanitaires (Soutien aux personnes atteintes du cancer et leur famille; transport, hébergement, repas; assure en tout ou en partie les déplacements pour les soins médicaux reliés au cancer et pour la personne accompagnatrice). Malades chroniques (du cancer). Santé (traitement pour le cancer).</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers (50 bourses de 1 000 $ à des étudiants employés dans une pharmacie et inscrits dans une Faculté de pharmacie accréditée). Dons jumelés (avec les employés). Fondations hospitalières. Programmes de recrutement et de formation de bénévoles (les employés impliqués dans un OBNL peuvent obtenir 1 Angel Point par heure de bénévolat et à chaque 50hres il a droit à 250 $ pour l'OBNL de son choix jusqu'à un maximum de 1 000 $ par année).</t>
+          <t>Activité bénéfice annuelle (Tournois, événements sportifs). Campagne de financement (Tournoi de golf, souper théâtre et tirage).</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes (dans les régions où vivent et travaillent les employés). Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Limites géographiques : le Canada et USA. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>communications@mckesson.ca</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>www.mckesson.ca/fr/communautaire/fondation. aspx</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : Bas St-Laurent, Gaspésie-Les-Ïles, Côte-Nord et le Nord-Ouest du Nouveau-Brunswick.</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>514-745-2300</t>
+          <t>418-862-5054</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -5076,7 +5052,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>789</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5086,75 +5062,71 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>St-Hubert,</t>
+          <t>Fondation Raymond James Canada</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2500, boul. Daniel-Johnson, 7 étage Laval QC H7T2P6</t>
+          <t>2100 – 925 West Georgia Street Vancouver, BC V6C3L2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation publique </t>
-        </is>
-      </c>
+          <t xml:space="preserve">B  </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Diane Bouchard, Trésorière </t>
+          <t xml:space="preserve">Mr. Paul Allison, Director &amp; Chairman </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>450-688-6500</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>250 à 200 000 $</t>
-        </is>
-      </c>
+          <t>604-659-8259</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>664 000 $</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>1 290 700 $</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>30 septembre</t>
-        </is>
-      </c>
+          <t>3 003 590 $</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Centraide. Éducation. Enfance et jeunesse. Famille (counselling, etc). Handicapés physiques et intellectuels. Hôpitaux. Maladies (Alzheimer, Fibrose Kystique, cancer et autres). Pauvreté. Santé.</t>
+          <t xml:space="preserve">Enfance et jeunesse. Promotion et protection de la santé, y compris des services de premiers soins et d'information. Fonds de secours. Secours aux sinistrés. </t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (ventes aux enchères, boîtes de collecte, programmes de dons planifiés, dons de sociétés et commandites ciblés, tournois, événements sportifs).</t>
+          <t xml:space="preserve">Banques alimentaires ou vestimentaires, soupes popu-laires, auberges. Bénévolat par le personnel. Hébergement ou autres services à l'enfance et à la jeunesse.  </t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>RJCFoundation@raymondjames.ca</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>https://rjcfoundation.ca/fr</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>450-688-3900</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> le Canada.</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -5165,7 +5137,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>790</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5175,63 +5147,87 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fondation d’Entreprise Michelin</t>
+          <t xml:space="preserve">Mackenzie Financial Charitable Foundation </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>a/s 2500, boul. Daniel-Johnson, bur. 500 Laval QC  H7P2T6</t>
+          <t>180 Queen St. W., Suite 1600 Toronto ON M5V3K1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">F  </t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation publique </t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">M. Florent Menegaux, Président, Fondation d’Entreprise Michelin </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+          <t xml:space="preserve">Mr Bradley Offman, Director &amp; President </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>800-387-0614</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>5 000 à 100 000 $</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>825 500 $</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mobilité durable, sports et santé, éducation et solidarité, culture et pratimoine et protection de l’environnement.. </t>
+          <t>Causes charitables en général (enfance et jeunesse à risque). Centraide. Éducation. Enfance et jeunesse (hébergement ou autres services). Pauvreté. Santé (enfants, jeunes et adultes malades, services et besoins). Santé mentale (organismes de santé spécialisés). Services sociaux.</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soutient des projets novateurs et engagés dans la vie de la « Cité », cohérents avec les activités du Groupe et proches de ses collabora-teurs et de ses sites.  </t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+          <t>Amélioration de la qualité de vie (démunis). Programmes de recrutement et de formation de bénévoles.</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>fondation@michelin.com</t>
+          <t>service@mackenzieinvestments.com</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>https://fondation.michelin.com/</t>
+          <t>https://www.mackenzieinvestments.com/en/about/ charitable-foundation/who-we-are</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> où Michelin développe ses activités.</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>866-766-6623</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -5242,7 +5238,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>827</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5252,52 +5248,52 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mitsui Canada Foundation,</t>
+          <t>McCain Foundation,</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>c/o Mitsui &amp; Co. (Canada) 66 Wellington Street West, Suite 3510 Toronto ON M5C2T6</t>
+          <t>8800 Main Street Florenceville-Bristol NB E7L1B2</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Tetsuo Komuro, Administrator </t>
+          <t xml:space="preserve">Mrs Ann H. McCain-Evans, Chairperson </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>416-947-3828</t>
+          <t>506-392-3114</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>3 000 à 24 700 $</t>
+          <t>100 à 250 000 $</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>82 100 $</t>
+          <t>1 518 500 $</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1 713 200 $</t>
+          <t>34 554 500 $</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>31 mars</t>
+          <t>1er mars</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -5307,17 +5303,17 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Arts et culture (japonais, programmes culturels). Centraide. Culture et traditions (japonaises). Échanges académiques avec (Japon et le Canada). Éducation (canado-japonnaise). Environnement. Héritage culturel (histoire). Musées / Centre d’interprétation. Orchestres. Universités.</t>
+          <t>Agriculture. Arts et culture (pour enfants). Arts visuels (sculpture, peinture, gravure). Collèges communautaires. Éducation (préscolaire aux adultes, en arts et école des arts, Universités et collèges, Bourses d'études, bourses d'entretien, etc). Enfants (développement et bien-être; installations récréatives communautaires, etc). Environnement. Hôpitaux. Musées / Centre d’interprétation. Organismes religieux. Recherche (en éducation et médecine). Santé. Sciences et sciences sociales. Services sociaux. Sports et loisirs. Universités (canadiennes).</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers. Échanges culturels (avec le Japon : subventions de voyage pour groupes, concours oratoire japonais à Toronto, écoles japonaises du Canada). Écoles (favorise le jumelage des écoles canadiennes et japonaises). Projets spéciaux.</t>
+          <t>Bourses d'études (écoles académiques). Fonds de construction / de capitalisation. Fonds pour programmes et services. Organismes (communautaires). Prix. Projets de recherches. Projets spéciaux. Technologie informatique.</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier ou fax. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet.</t>
+          <t>Communiquer par : courrier ou fax. Formulaire disponible sur demande (pour les programmes universitaires). Limites géographiques : le Canada.</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -5326,7 +5322,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>416-865-1486</t>
+          <t>506-392-0816</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -5339,7 +5335,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>829</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5349,12 +5345,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Molson,</t>
+          <t xml:space="preserve">McCarthy Tétrault Foundation </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1555, rue Notre-Dame Est Montréal QC H2L2R5</t>
+          <t>Toronto Dominion Bank Tower, Suite 5300 P.O. Box 48 Toronto ON M5K1E6</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5369,27 +5365,27 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">M. Dominique Paliotti, Trésorier </t>
+          <t xml:space="preserve">Mr Nigel Johnston, Director-Treasurer </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>514-590-6335</t>
+          <t>416-362-1812</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>20 000 à 2 000 000 $</t>
+          <t>170 à 398 000 $</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>5 535 000 $</t>
+          <t>994 700 $</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>266 068 800 $</t>
+          <t>1 169 000 $</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5399,22 +5395,22 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>30 septembre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Arts et culture (Musées, galeries d'art, salles de concert). Causes charitables en général (organismes canadiens enregistrés). Causes humanitaires. Développement social. Éducation (universités et collèges). Environnement. Hôpitaux. Institutions d'enseignement. Musées / Centre d’interprétation. Orchestres (Orchestre Symphonique de Montréal). Organismes religieux. Recherche (médicale). Santé. Sciences et sciences sociales. Services sociaux. Sports et loisirs. Universités.</t>
+          <t>Causes charitables en général (organismes de charité et culturels enregistrés). Centraide. Éducation (écoles, Universités et collèges). Femmes et causes féminines. Hôpitaux. Santé. Services sociaux (Agences, aide et services). Universités (Faculté de droit).</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Fondations Cegeps (Collèges). Fondations hospitalières. Fonds de construction / de capitalisation. Fonds de dotation. Fonds d'équipement. Projets spéciaux.</t>
+          <t>Fondations hospitalières.</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Formulaire disponible sur demande. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet.</t>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
@@ -5423,7 +5419,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>514-599-5396</t>
+          <t>416-868-0673</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -5436,7 +5432,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>831</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5446,81 +5442,77 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>24h Tremblant,</t>
+          <t>McKesson,</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1000, ch. des Voyageurs Mont-Tremblant QC J8E1T1</t>
+          <t>8625, rte Transcanadienne Saint-Laurent QC H4S1Z6</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation publique </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Noémie Biardeau, Secrétariat </t>
+          <t xml:space="preserve">Madame Danièle Dufour, Directrice des  communications corp. </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>819-681-5995</t>
+          <t>514-745-2100</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>16 500 à 840 000 $</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>1 634 000 $</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>894 500 $</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>30 juin</t>
-        </is>
-      </c>
+          <t>6 000 à 25 000 $</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Enfants (développement et bien-être; améliorer la qualité de vie des enfants de la région du Mont-Tremblant). Services communautaires (aider les enfants à se développer sur le plan sportif, culturel et aritistique).</t>
+          <t>Causes charitables en général (organismes enregistrés et les OBNL ayant pour objectifs la santé des enfants et des jeunes). Centraide. Éducation (enfants et jeunes et études supérieures). Santé (enfants et jeunes). Santé mentale (enfants). Services sociaux.</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (tournois, événements sportifs, dons de sociétés et commandites ciblés).</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr"/>
+          <t>Bourses aux particuliers (50 bourses de 1 000 $ à des étudiants employés dans une pharmacie et inscrits dans une Faculté de pharmacie accréditée). Dons jumelés (avec les employés). Fondations hospitalières. Programmes de recrutement et de formation de bénévoles (les employés impliqués dans un OBNL peuvent obtenir 1 Angel Point par heure de bénévolat et à chaque 50hres il a droit à 250 $ pour l'OBNL de son choix jusqu'à un maximum de 1 000 $ par année).</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Administre ses propres programmes (dans les régions où vivent et travaillent les employés). Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Limites géographiques : le Canada et USA. Voir le site web.</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>nbiardeau@intrawest.com</t>
+          <t>communications@mckesson.ca</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>www.24htremblant.com</t>
+          <t>www.mckesson.ca/fr/communautaire/fondation. aspx</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>819-681-3000</t>
+          <t>514-745-2300</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -5533,7 +5525,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5543,79 +5535,75 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Newman's Own Foundation </t>
+          <t>St-Hubert,</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>246 Post Road E. Westport CT 06880-3615 USA</t>
+          <t>2500, boul. Daniel-Johnson, 7 étage Laval QC H7T2P6</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ms Kathy Siever, Grants </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t xml:space="preserve">Madame Diane Bouchard, Trésorière </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>450-688-6500</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>5 000 à 50 000 USD $</t>
+          <t>250 à 200 000 $</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>26 000 000 USD $</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
+          <t>664 000 $</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1 290 700 $</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>31 août</t>
+          <t>30 septembre</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Aînés. Arts et culture. Éducation. Enfance et jeunesse. Environnement. Handicapés physiques et intellectuels. Littérature. Pauvreté. Prévention du crime (et des abus). Santé. Services sociaux.</t>
+          <t>Causes charitables en général. Centraide. Éducation. Enfance et jeunesse. Famille (counselling, etc). Handicapés physiques et intellectuels. Hôpitaux. Maladies (Alzheimer, Fibrose Kystique, cancer et autres). Pauvreté. Santé.</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Camps de vacances (pour jeunes en difficultés médicales, sociales, etc). Éducation. Santé.</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada et USA. Soumettre d'abord un résumé du projet. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>info@newmansownfoundation.org</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>http://newmansownfoundation.org/about- us/contact-us/</t>
-        </is>
-      </c>
+          <t>Activité bénéfice annuelle (ventes aux enchères, boîtes de collecte, programmes de dons planifiés, dons de sociétés et commandites ciblés, tournois, événements sportifs).</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>450-688-3900</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -5626,7 +5614,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>847</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5636,51 +5624,87 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Novartis International AG </t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>Merck Frosst Canada</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>16 750, rte Transcanadienne Kirkland QC H9H4M7</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">B  </t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fonds d’employés </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madame Joanna Ginocchi-Foster, Présidente </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>514-428-3601</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>250 à 2 500 $</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>33 500 $</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>13 800 $</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Élaboration de solutions holistiques pour la santé des communautés à bas revenus dans le monde. </t>
+          <t>Causes charitables en général. Éducation. Enfants (développement et bien-être). Handicapés physiques et intellectuels (services). Hôpitaux. Recherche (sur les maladies des enfants et cancer du sein). Santé. Santé mentale (organismes de santé spécialisés). Services sociaux. Soins palliatifs.</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grands programmes de santé mondiaux en engageant les communautés de pays en voie de développement avec des partenaires lo-caux et mondiaux. </t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr"/>
+          <t>Fondations hospitalières. Recherches scientifiques. Santé.</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier ou fax. Favorise les organismes communautaires. Limites géographiques : le Québec.</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>novartis.foundation@novartis.com</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.novartisfoundation.org/about-us  </t>
-        </is>
-      </c>
+          <t>joanna.foster@merck.com</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>514-428-8675</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -5691,7 +5715,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>860</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5701,79 +5725,63 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Panicaro Foundation </t>
+          <t>Fondation d’Entreprise Michelin</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>c/o Pricewaterhouse Coopers 99 Bank Street, Suite 800 Ottawa ON K1P1K6</t>
+          <t>a/s 2500, boul. Daniel-Johnson, bur. 500 Laval QC  H7P2T6</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation privée </t>
-        </is>
-      </c>
+          <t xml:space="preserve">F  </t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Robert W.M. Birks, President </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>613-237-3702</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>1 500 à 65 000 $</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>200 850 $</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>5 533 400 $</t>
-        </is>
-      </c>
+          <t xml:space="preserve">M. Florent Menegaux, Président, Fondation d’Entreprise Michelin </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>30 novembre</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arts et culture. Causes charitables en général (organismes enregistrés). Développement du leadership. Éducation (collèges et universités). Océanographie. Services sociaux. </t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+          <t xml:space="preserve">Mobilité durable, sports et santé, éducation et solidarité, culture et pratimoine et protection de l’environnement.. </t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soutient des projets novateurs et engagés dans la vie de la « Cité », cohérents avec les activités du Groupe et proches de ses collabora-teurs et de ses sites.  </t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>fondation@michelin.com</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>https://fondation.michelin.com/</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>613-237-3963</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> où Michelin développe ses activités.</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -5784,7 +5792,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>866</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5794,55 +5802,83 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Fondation Loblaw Companies Limited of Canada</t>
+          <t>Mitsui Canada Foundation,</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>a/s 400, ave Ste-Croix Saint-Laurent QC  H4N3L4</t>
+          <t>c/o Mitsui &amp; Co. (Canada) 66 Wellington Street West, Suite 3510 Toronto ON M5C2T6</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">B  </t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mr Tetsuo Komuro, Administrator </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>416-947-3828</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>3 000 à 24 700 $</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>82 100 $</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1 713 200 $</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
+          <t>31 mars</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les companies Loblaw Ltd et George Weston Ltd offrent du financement de démarrage [seed money] pour la recherche interdiscipli-naire ainsi que le développement technologique pour accélérer les solutions aux défis de l’alimentation durable. </t>
+          <t>Arts et culture (japonais, programmes culturels). Centraide. Culture et traditions (japonaises). Échanges académiques avec (Japon et le Canada). Éducation (canado-japonnaise). Environnement. Héritage culturel (histoire). Musées / Centre d’interprétation. Orchestres. Universités.</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le « Loblaw Scholarship Fund » assiste des étudiants ca-nadiens dans les universités et collèges canadiens avec des bourses pour faire avancer l’éducation du public et des individus sur l’alimentation saine.  Les programmes « Feed Kids Good Food » pour alimenter leur journée et « Feed Kids Knowledge » du fonds PC Children’s Charity visent à aider les jeunes à faire les meilleurs choix pour leur santé et à devenir plus respon-sables quant à leur alimentation.  « PC Children’s Charity » est l’un des plus importants donateurs des programmes de nutrition d’écoles canadiennes avec des dons de 54 millions $ nourrissant 450 000 enfants annuellement.  Leur programme « Putting Women's Health First » a contribué 60 millions $ pour aider 200 000 femmes canadiennes depuis six ans. </t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr"/>
+          <t>Bourses aux particuliers. Échanges culturels (avec le Japon : subventions de voyage pour groupes, concours oratoire japonais à Toronto, écoles japonaises du Canada). Écoles (favorise le jumelage des écoles canadiennes et japonaises). Projets spéciaux.</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Administre ses propres programmes. Communiquer par : courrier ou fax. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet.</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.loblaw.ca/en/responsibility/community/scholarshipfund.html </t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>https://www.loblaw.ca/en/responsibility/community/charitable-giving.html</t>
-        </is>
-      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>416-865-1486</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -5853,7 +5889,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>867</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5863,12 +5899,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">RBC Foundation </t>
+          <t>Molson,</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>155 Wellington Street West, 18th Floor Toronto ON M5V3K7</t>
+          <t>1555, rue Notre-Dame Est Montréal QC H2L2R5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5878,32 +5914,32 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Shari Austin, Director </t>
+          <t xml:space="preserve">M. Dominique Paliotti, Trésorier </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>416-955-2646</t>
+          <t>514-590-6335</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>4000 à 926 000 $</t>
+          <t>20 000 à 2 000 000 $</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>52 844 860 $</t>
+          <t>5 535 000 $</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>48 298 800 $</t>
+          <t>266 068 800 $</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5913,39 +5949,31 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>31 octobre</t>
+          <t>30 septembre</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Aide aux sinistrés (désastres naturels). Aînés. Arts et culture. Causes charitables en général (organismes enregistrés). Centraide. Centres de plein air (et camps d'été); groupes de jeunes (guides, cadets, clubs des 4-H, etc). Développement communautaire (et économique). Éducation. Environnement. Handicapés physiques. Hôpitaux. Jeunesse. Organismes religieux. Premières nations. Protection des sols (et de l'agriculture et protection de l'environnement; services de recyclage). Protection et soins des animaux. Santé. Santé mentale. Sciences et sciences sociales. Services communautaires. Services sociaux. Sports et loisirs (amateurs). Universités.</t>
+          <t>Arts et culture (Musées, galeries d'art, salles de concert). Causes charitables en général (organismes canadiens enregistrés). Causes humanitaires. Développement social. Éducation (universités et collèges). Environnement. Hôpitaux. Institutions d'enseignement. Musées / Centre d’interprétation. Orchestres (Orchestre Symphonique de Montréal). Organismes religieux. Recherche (médicale). Santé. Sciences et sciences sociales. Services sociaux. Sports et loisirs. Universités.</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers (5 bourses d'une valeur de 4 000 $ voir le site web pour détails). Dons jumelés (avec les employés). Fondations hospitalières. Fonds de dotation. Fonds pour programmes et services. Projets de recherches. Projets spéciaux.</t>
+          <t>Fondations Cegeps (Collèges). Fondations hospitalières. Fonds de construction / de capitalisation. Fonds de dotation. Fonds d'équipement. Projets spéciaux.</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier seulement. Favorise les organismes communautaires. Joindre la liste des membres du c.a. (avec la liste des autres donateurs approchés y compris l'aide financière gouvernementale). Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada. Liste de projets financés disponible. Rapport annuel disponible (sur le site web ou dans les succursales de RBC). Soumettre d'abord un résumé du projet. Voir le site web (pour dons et commandite).</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>donations@rbc.com</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>www.rbc.com/community/donations</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier ou fax. Formulaire disponible sur demande. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet.</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>416-974-0624</t>
+          <t>514-599-5396</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -5958,7 +5986,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>873</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5968,89 +5996,81 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boston Pizza Foundation </t>
+          <t>24h Tremblant,</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>100-10 760 Shellbridge Way Richmond BC V6X3H1</t>
+          <t>1000, ch. des Voyageurs Mont-Tremblant QC J8E1T1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve">Fondation publique </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Walter Treveling, Director &amp; President </t>
+          <t xml:space="preserve">Madame Noémie Biardeau, Secrétariat </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>604-270-1108</t>
+          <t>819-681-5995</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>500 à 290 000 $</t>
+          <t>16 500 à 840 000 $</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1 709 450 $</t>
+          <t>1 634 000 $</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>708 500 $</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
+          <t>894 500 $</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>30 juin</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Enfance et jeunesse. Enfants (développement et bien-être). Handicapés physiques (enfants sourds). Jeunesse. Maisons d'hébergement (pour les enfants, Hébergement ou autres services à l'enfance et à la jeunesse). Pauvreté (personnes dans le besoin). Santé (promouvoir les programmes de santé sur les maladies du coeur et le diabète juvénile). Santé mentale (Organismes de santé spécialisés). Services sociaux (Fondation des maladies du coeur du Canada, Fondation de la recherche sur le diabète juvénile et Jeuness, J'écoute). Soins palliatifs.</t>
+          <t>Enfants (développement et bien-être; améliorer la qualité de vie des enfants de la région du Mont-Tremblant). Services communautaires (aider les enfants à se développer sur le plan sportif, culturel et aritistique).</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés, tournois, événements sportifs, internet). Amélioration de la qualité de vie (des enfants et des jeunes). Campagne de financement (Tournoi de golf annuel international des franchisés de Boston Pizza). Soins palliatifs.</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
-        </is>
-      </c>
+          <t>Activité bénéfice annuelle (tournois, événements sportifs, dons de sociétés et commandites ciblés).</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>treveling@bostonpizza.com</t>
+          <t>nbiardeau@intrawest.com</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>www.bostonpizza.com/en/bp-foundation</t>
+          <t>www.24htremblant.com</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>604-270-4168</t>
+          <t>819-681-3000</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -6063,7 +6083,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>900</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6073,91 +6093,79 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ronald McDonald House Charities </t>
+          <t xml:space="preserve">Newman's Own Foundation </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>a/s Les Restaurants Ronald McDonald du Canada 1, McDonald's Place Toronto ON M3C3L4</t>
+          <t>246 Post Road E. Westport CT 06880-3615 USA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Jeff Mclean, Treasurer </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>416-446-3493</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Ms Kathy Siever, Grants </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>157 700 à 829 500 $</t>
+          <t>5 000 à 50 000 USD $</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>5 046 250 $</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>17 735 400 $</t>
-        </is>
-      </c>
+          <t>26 000 000 USD $</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1 mars, 1 août et 1 décembre</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>31 août</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes enregistrés voués aux enfants malades et/ou avec limitations et leur famille). Malades chroniques (cancer, autisme, paralysie cérébrale ou syndrome de Down etc). Recherche (médicale pour les enfants). Santé (des enfants).</t>
+          <t>Aînés. Arts et culture. Éducation. Enfance et jeunesse. Environnement. Handicapés physiques et intellectuels. Littérature. Pauvreté. Prévention du crime (et des abus). Santé. Services sociaux.</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (publicité, imprimés, messages publicitaires à la radio ou à la télévision, ventes aux enchères, tirages, loteries, dons de sociétés et commandites ciblés, tournois, événements sportifs, marketing lié à une cause). Amélioration de la qualité de vie (des enfants atteints de maladies graves ou chroniques ou avec des limitations diverses et leur famille). Organismes (communautaires venant en aide aux enfants dans le besoin, ou souffrant de graves maladies, chroniques ou physiques). Services récréationnels (sports et terrains de jeux accessibles en fauteuil roulant).</t>
+          <t>Camps de vacances (pour jeunes en difficultés médicales, sociales, etc). Éducation. Santé.</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Appuie à des projets importants (avec appui financier surtout aux Manoirs McDonald et aux organismes qui s'occupent d'enfants malades). Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Joindre le numéro d’enregistrement de charité. Limites géographiques : le Canada. Voir le site web.</t>
+          <t>Communiquer par : courrier. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada et USA. Soumettre d'abord un résumé du projet. Voir le site web.</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>rmhc@ca.mcd.com</t>
+          <t>info@newmansownfoundation.org</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>www.rmhc.ca</t>
+          <t>http://newmansownfoundation.org/about- us/contact-us/</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>416-446-4679</t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -6168,7 +6176,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>912</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6178,91 +6186,51 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Royal Lepage Shelter Foundation,</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>39 Wynford Drive Toronto ON M3C3K5</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Novartis International AG </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation publique </t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mrs Shanan Spencer-Brown, Executive Director  &amp; President </t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>416-510-5750</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>350 à 250 550 $</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>1 897 025 $</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>1 350 600 $</t>
-        </is>
-      </c>
+          <t xml:space="preserve">B  </t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Éducation. Femmes et causes féminines (avancement). Hébergement d'urgence (femmes et enfants). Prévention du crime (violence conjugale). Recherche (sur la violence faite aux femmes). Religion. Universités.</t>
+          <t xml:space="preserve">Élaboration de solutions holistiques pour la santé des communautés à bas revenus dans le monde. </t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, contacts ciblés, tournois, événements sportifs, marketing lié à une cause). Événements culturels (et spéciaux).</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Tél. sans frais : 877-757-4545. Limites géographiques : le Canada. Voir le site web.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Grands programmes de santé mondiaux en engageant les communautés de pays en voie de développement avec des partenaires lo-caux et mondiaux. </t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>shelterfoundation@royallepage.ca</t>
+          <t>novartis.foundation@novartis.com</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>www.royallepage.ca/shelter</t>
+          <t xml:space="preserve">https://www.novartisfoundation.org/about-us  </t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>416-510-5856</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -6273,7 +6241,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6283,37 +6251,49 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sanofi-Aventis au Canada,</t>
+          <t xml:space="preserve">Panicaro Foundation </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2150, boul. St-Elzéar O. Laval QC H7L4A8</t>
+          <t>c/o Pricewaterhouse Coopers 99 Bank Street, Suite 800 Ottawa ON K1P1K6</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Docteur Jean Bourgouin, Vice-président  Recherche &amp; développement </t>
+          <t xml:space="preserve">Mr Robert W.M. Birks, President </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>514-331-9220</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+          <t>613-237-3702</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1 500 à 65 000 $</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>200 850 $</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>5 533 400 $</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
           <t>En tout temps</t>
@@ -6321,46 +6301,30 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>30 novembre</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Centres de plein air (et camps d'été). Coopération internationale (pays en développement). Éducation. Jeunesse. Recherche. Santé. Services sociaux. Universités.</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Coopération internationale (pays en développement). Dons jumelés. Recherches médicales. Recherches scientifiques. Santé (dons en médicaments).</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Arts et culture. Causes charitables en général (organismes enregistrés). Développement du leadership. Éducation (collèges et universités). Océanographie. Services sociaux. </t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier seulement. Formulaire disponible sur le site web). Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Soumettre d'abord un résumé du projet. Voir le site web (« Collectivité »).</t>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>www.sanofi-aventis.ca</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>www.sanofi.ca</t>
-        </is>
-      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>514-856-8706</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>63700</t>
-        </is>
-      </c>
+          <t>613-237-3963</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -6370,7 +6334,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6380,87 +6344,55 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mirella &amp; Lino Saputo,</t>
+          <t>Fondation Loblaw Companies Limited of Canada</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6869, boul. Métropolitain Est St-Léonard QC H1P1X8</t>
+          <t>a/s 400, ave Ste-Croix Saint-Laurent QC  H4N3L4</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation privée </t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Madame Mirella Scattolin Saputo, Présidente </t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>514-328-6662</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>1 000 à 400 000 $</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>1 772 500 $</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>29 800 $</t>
-        </is>
-      </c>
+          <t xml:space="preserve">B  </t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Aînés (causes venant en aide aux aînés). Arts et culture. Causes charitables en général (organismes enregistrés). Femmes et causes féminines (causes venant en aide aux femmes). Handicapés physiques (aide aux enfants malades et handicapés). Hôpitaux. Organismes religieux. Santé. Sciences et sciences sociales. Services sociaux.</t>
+          <t xml:space="preserve">Les companies Loblaw Ltd et George Weston Ltd offrent du financement de démarrage [seed money] pour la recherche interdiscipli-naire ainsi que le développement technologique pour accélérer les solutions aux défis de l’alimentation durable. </t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Fondations hospitalières.</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou fax en français, anglais ou italien. Limites géographiques : Montréal. Voir le site web.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Le « Loblaw Scholarship Fund » assiste des étudiants ca-nadiens dans les universités et collèges canadiens avec des bourses pour faire avancer l’éducation du public et des individus sur l’alimentation saine.  Les programmes « Feed Kids Good Food » pour alimenter leur journée et « Feed Kids Knowledge » du fonds PC Children’s Charity visent à aider les jeunes à faire les meilleurs choix pour leur santé et à devenir plus respon-sables quant à leur alimentation.  « PC Children’s Charity » est l’un des plus importants donateurs des programmes de nutrition d’écoles canadiennes avec des dons de 54 millions $ nourrissant 450 000 enfants annuellement.  Leur programme « Putting Women's Health First » a contribué 60 millions $ pour aider 200 000 femmes canadiennes depuis six ans. </t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
-          <t>www.saputo.com</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr"/>
+          <t xml:space="preserve">https://www.loblaw.ca/en/responsibility/community/scholarshipfund.html </t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>https://www.loblaw.ca/en/responsibility/community/charitable-giving.html</t>
+        </is>
+      </c>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>514-328-3375</t>
-        </is>
-      </c>
+      <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -6471,7 +6403,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1043</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6481,12 +6413,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Reader's Digest du Canada,</t>
+          <t xml:space="preserve">RBC Foundation </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1100, boul. René-Lévesque O., 9e étage Montréal QC H3B5H5</t>
+          <t>155 Wellington Street West, 18th Floor Toronto ON M5V3K7</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6501,65 +6433,69 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Corinne Hazan, Contrôleure </t>
+          <t xml:space="preserve">Mr Shari Austin, Director </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>514-940-7226</t>
+          <t>416-955-2646</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>25 à 12 500 $</t>
+          <t>4000 à 926 000 $</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>82 100 $</t>
+          <t>52 844 860 $</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>216 400 $</t>
+          <t>48 298 800 $</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>15 avril</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>31 octobre</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général. Centraide. Éducation (en écriture, collèges et universités). Héritage culturel. Hôpitaux. Journalisme. Organismes religieux. Santé (organismes spécialisés). Services sociaux. Universités.</t>
+          <t>Aide aux sinistrés (désastres naturels). Aînés. Arts et culture. Causes charitables en général (organismes enregistrés). Centraide. Centres de plein air (et camps d'été); groupes de jeunes (guides, cadets, clubs des 4-H, etc). Développement communautaire (et économique). Éducation. Environnement. Handicapés physiques. Hôpitaux. Jeunesse. Organismes religieux. Premières nations. Protection des sols (et de l'agriculture et protection de l'environnement; services de recyclage). Protection et soins des animaux. Santé. Santé mentale. Sciences et sciences sociales. Services communautaires. Services sociaux. Sports et loisirs (amateurs). Universités.</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers. Conférences. Dons jumelés (avec les employés). Fondations hospitalières. Fonds de construction / de capitalisation. Fonds de fonctionnement ou d'opération. Fonds d'équipement. Prix. Projets de recherches. Projets spéciaux. Publications (et diffusion médiatique). Séminaires.</t>
+          <t>Bourses aux particuliers (5 bourses d'une valeur de 4 000 $ voir le site web pour détails). Dons jumelés (avec les employés). Fondations hospitalières. Fonds de dotation. Fonds pour programmes et services. Projets de recherches. Projets spéciaux.</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Dons échelonnés sur plusieurs années. Limites géographiques : le Canada. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr"/>
+          <t>Communiquer par : courrier seulement. Favorise les organismes communautaires. Joindre la liste des membres du c.a. (avec la liste des autres donateurs approchés y compris l'aide financière gouvernementale). Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada. Liste de projets financés disponible. Rapport annuel disponible (sur le site web ou dans les succursales de RBC). Soumettre d'abord un résumé du projet. Voir le site web (pour dons et commandite).</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>donations@rbc.com</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>www.selectionrd.ca</t>
+          <t>www.rbc.com/community/donations</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>514-940-7342</t>
+          <t>416-974-0624</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -6572,7 +6508,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6582,47 +6518,47 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">La fondation Stop Hunger de Sodexo </t>
+          <t xml:space="preserve">Boston Pizza Foundation </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sodexo Canada 5420 North Service Road, Suite 501 Burlington, ON L7L6C7</t>
+          <t>100-10 760 Shellbridge Way Richmond BC V6X3H1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve">B  </t>
+          <t>B</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Marie-Line Beauchamp, Director </t>
+          <t xml:space="preserve">Mr Walter Treveling, Director &amp; President </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>514-866-7070canada@sodexo.comhttp://ca.sodexo.com/caen/contact.aspx</t>
+          <t>604-270-1108</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1 000 à 7 000 $</t>
+          <t>500 à 290 000 $</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>50 800 $</t>
+          <t>1 709 450 $</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>426 000 $En tout temps</t>
+          <t>708 500 $</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -6632,37 +6568,41 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>31 décembreAlimentation (santé; dans les écoles). Banques alimentaires (communautaire et vestimentaires, auberges). Éducation (améliorer l’alimentation). Enfants (développement et bien-être). Environnement. Pauvreté. Santé. Services sociaux.Activité bénéfice annuelle (ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés). Dons jumelés (avec les employés).</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pauvreté. Voué à réduire la faim dans les communautés.  </t>
+          <t>Causes charitables en général. Enfance et jeunesse. Enfants (développement et bien-être). Handicapés physiques (enfants sourds). Jeunesse. Maisons d'hébergement (pour les enfants, Hébergement ou autres services à l'enfance et à la jeunesse). Pauvreté (personnes dans le besoin). Santé (promouvoir les programmes de santé sur les maladies du coeur et le diabète juvénile). Santé mentale (Organismes de santé spécialisés). Services sociaux (Fondation des maladies du coeur du Canada, Fondation de la recherche sur le diabète juvénile et Jeuness, J'écoute). Soins palliatifs.</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Programmes de réduction de la faim d’organismes com-munautaires. 740, rue Saint-Maurice, bur. 106   MontréalQCH3C1L5B</t>
+          <t>Activité bénéfice annuelle (Ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés, tournois, événements sportifs, internet). Amélioration de la qualité de vie (des enfants et des jeunes). Campagne de financement (Tournoi de golf annuel international des franchisés de Boston Pizza). Soins palliatifs.</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier ou courriel. Limites géographiques : Montréal, Ottawa, Toronto, Halifax, Calgary et Vancouver. Voir le site web.</t>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>canada@sodexo.com</t>
+          <t>treveling@bostonpizza.com</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://ca.stop-hunger.org/fr/home/subvention.html </t>
+          <t>www.bostonpizza.com/en/bp-foundation</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>604-270-4168</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
@@ -6673,7 +6613,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6683,12 +6623,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sony Canada Charitable Foundation </t>
+          <t xml:space="preserve">Ronald McDonald House Charities </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>c/o Sony of Canada 115 Gordon Baker Rd Toronto ON M2H3R6</t>
+          <t>a/s Les Restaurants Ronald McDonald du Canada 1, McDonald's Place Toronto ON M3C3L4</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6698,74 +6638,74 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Barry Hasler, Treasurer </t>
+          <t xml:space="preserve">Mr Jeff Mclean, Treasurer </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>416-499-1414</t>
+          <t>416-446-3493</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>250 à 145 650 $</t>
+          <t>157 700 à 829 500 $</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>240 100 $</t>
+          <t>5 046 250 $</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2 780 100 $</t>
+          <t>17 735 400 $</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>1 mars, 1 août et 1 décembre</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>31 mars</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes canadiens enregistrés). Centraide. Make-a-Wish Canada. Éducation. Enfance et jeunesse. Enfants (développement et bien-être). Environnement. Hôpitaux (divertissement pour enfants malades). Pauvreté. Services sociaux. Universités (canadiennes).</t>
+          <t>Causes charitables en général (organismes enregistrés voués aux enfants malades et/ou avec limitations et leur famille). Malades chroniques (cancer, autisme, paralysie cérébrale ou syndrome de Down etc). Recherche (médicale pour les enfants). Santé (des enfants).</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Tournois de golf). Bourses aux particuliers (bourses de 3 000 $ ch. à 10 universités canadiennes). Dons jumelés (avec les employés). Prix.</t>
+          <t>Activité bénéfice annuelle (publicité, imprimés, messages publicitaires à la radio ou à la télévision, ventes aux enchères, tirages, loteries, dons de sociétés et commandites ciblés, tournois, événements sportifs, marketing lié à une cause). Amélioration de la qualité de vie (des enfants atteints de maladies graves ou chroniques ou avec des limitations diverses et leur famille). Organismes (communautaires venant en aide aux enfants dans le besoin, ou souffrant de graves maladies, chroniques ou physiques). Services récréationnels (sports et terrains de jeux accessibles en fauteuil roulant).</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
+          <t>Appuie à des projets importants (avec appui financier surtout aux Manoirs McDonald et aux organismes qui s'occupent d'enfants malades). Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Joindre le numéro d’enregistrement de charité. Limites géographiques : le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>general_inquiries@sony.ca</t>
+          <t>rmhc@ca.mcd.com</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>www.sony.ca/view/corporate_philanthropy.htm</t>
+          <t>www.rmhc.ca</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>416-491-7560</t>
+          <t>416-446-4679</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -6778,7 +6718,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6788,17 +6728,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SSQ,</t>
+          <t>Royal Lepage Shelter Foundation,</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2525, boul. Laurier  C.P. 10 500 Ste-Foy QC G1V4L2</t>
+          <t>39 Wynford Drive Toronto ON M3C3K5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -6808,27 +6748,27 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Jean Cinq-Mars, Personne Ressource </t>
+          <t xml:space="preserve">Mrs Shanan Spencer-Brown, Executive Director  &amp; President </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>418-651-7000</t>
+          <t>416-510-5750</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>500 à 25 000 $</t>
+          <t>350 à 250 550 $</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>81 560 $</t>
+          <t>1 897 025 $</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1 570 800 $</t>
+          <t>1 350 600 $</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -6843,30 +6783,34 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Centres de plein air (et camps d'été / de vacances). Éducation. Enfants (développement et bien-être). Enfants maltraîtés / abusés. Hébergement d'urgence (pour enfants et jeunes). Jeunesse. Prévention du crime (et du suicide). Santé. Services sociaux. Sports et loisirs (terrains de jeux).</t>
+          <t>Éducation. Femmes et causes féminines (avancement). Hébergement d'urgence (femmes et enfants). Prévention du crime (violence conjugale). Recherche (sur la violence faite aux femmes). Religion. Universités.</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers. Prix.</t>
+          <t>Activité bénéfice annuelle (Ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, contacts ciblés, tournois, événements sportifs, marketing lié à une cause). Événements culturels (et spéciaux).</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Favorise les organismes communautaires. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet (avec le budget total). Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr"/>
+          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Tél. sans frais : 877-757-4545. Limites géographiques : le Canada. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>shelterfoundation@royallepage.ca</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>www.ssq.ca</t>
+          <t>www.royallepage.ca/shelter</t>
         </is>
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>418-652-1659</t>
+          <t>416-510-5856</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -6879,7 +6823,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6887,30 +6831,86 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sanofi-Aventis au Canada,</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Voir la Fondation St-Hubert, plus haut.</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+          <t>2150, boul. St-Elzéar O. Laval QC H7L4A8</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur Jean Bourgouin, Vice-président  Recherche &amp; développement </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>514-331-9220</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Causes charitables en général. Centres de plein air (et camps d'été). Coopération internationale (pays en développement). Éducation. Jeunesse. Recherche. Santé. Services sociaux. Universités.</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Coopération internationale (pays en développement). Dons jumelés. Recherches médicales. Recherches scientifiques. Santé (dons en médicaments).</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier seulement. Formulaire disponible sur le site web). Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Soumettre d'abord un résumé du projet. Voir le site web (« Collectivité »).</t>
+        </is>
+      </c>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>www.sanofi-aventis.ca</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>www.sanofi.ca</t>
+        </is>
+      </c>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>514-856-8706</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>63700</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1191</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6930,62 +6930,90 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Steris Foundation </t>
+          <t>Mirella &amp; Lino Saputo,</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5960 Heisley Rd Mentor, OH, 44060-1834  USA</t>
+          <t>6869, boul. Métropolitain Est St-Léonard QC H1P1X8</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">A  </t>
+          <t>B</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+          <t xml:space="preserve"> Fondation privée </t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madame Mirella Scattolin Saputo, Présidente </t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>(440) 354-2600</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+          <t>514-328-6662</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1 000 à 400 000 $</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1 772 500 $</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>29 800 $</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Environnement, santé et sécurité industrielle.  </t>
+          <t>Aînés (causes venant en aide aux aînés). Arts et culture. Causes charitables en général (organismes enregistrés). Femmes et causes féminines (causes venant en aide aux femmes). Handicapés physiques (aide aux enfants malades et handicapés). Hôpitaux. Organismes religieux. Santé. Sciences et sciences sociales. Services sociaux.</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Appui la santé et l'éducation scientifique et les activités civiques et culturelles.</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr"/>
+          <t>Fondations hospitalières.</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier ou fax en français, anglais ou italien. Limites géographiques : Montréal. Voir le site web.</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
-          <t xml:space="preserve">www.steris.com </t>
+          <t>www.saputo.com</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>514-328-3375</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>nationales.</t>
-        </is>
-      </c>
+      <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6993,7 +7021,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7003,12 +7031,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tim Horton - Nationale,</t>
+          <t>Reader's Digest du Canada,</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>RR2, 264 Glen Morris Rd East St George ON N0E1N0</t>
+          <t>1100, boul. René-Lévesque O., 9e étage Montréal QC H3B5H5</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7018,70 +7046,70 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Org. philanthropique </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Bill Moir, Directeur-Président </t>
+          <t xml:space="preserve">Madame Corinne Hazan, Contrôleure </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>519-448-1248</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>514-940-7226</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>25 à 12 500 $</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>17 926 740 $</t>
+          <t>82 100 $</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>51 463 700 $</t>
+          <t>216 400 $</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>15 avril</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>31 octobre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Centres de plein air (et camps d'été; au Québec, Camp des Voyageurs Tim Horton, 60, ch. Du Canal, C.P. 310, Quyon Qc J0X2V0;  Tél. : 819-458-3164 ou 514-636-2233 - Fax : 819-458-3181). Enfance et jeunesse (défavorisées). Sports et loisirs.</t>
+          <t>Arts et culture. Causes charitables en général. Centraide. Éducation (en écriture, collèges et universités). Héritage culturel. Hôpitaux. Journalisme. Organismes religieux. Santé (organismes spécialisés). Services sociaux. Universités.</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Messages publicitaires, ventes aux enchères, boîte de collecte, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, campagnes de financement par la poste, dons de sociétés et commandites ciblés).</t>
+          <t>Bourses aux particuliers. Conférences. Dons jumelés (avec les employés). Fondations hospitalières. Fonds de construction / de capitalisation. Fonds de fonctionnement ou d'opération. Fonds d'équipement. Prix. Projets de recherches. Projets spéciaux. Publications (et diffusion médiatique). Séminaires.</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Formulaire disponible sur demande (ou sur le site web). Limites géographiques : le Québec, le Canada et USA. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>hamilton_erica@timhortons.com</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier ou fax. Dons échelonnés sur plusieurs années. Limites géographiques : le Canada. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
-          <t>www.timhortons.com/ca/fr</t>
+          <t>www.selectionrd.ca</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>519-448-1415</t>
+          <t>514-940-7342</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -7094,7 +7122,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1158</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7104,47 +7132,47 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Utramar Canada,</t>
+          <t xml:space="preserve">La fondation Stop Hunger de Sodexo </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1155, boul. René-Lévesque O., bur. 3200 Montréal QC H3B0C9</t>
+          <t>Sodexo Canada 5420 North Service Road, Suite 501 Burlington, ON L7L6C7</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t xml:space="preserve">B  </t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Christian Houle, Président </t>
+          <t xml:space="preserve">Mrs Marie-Line Beauchamp, Director </t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>514-499-6494</t>
+          <t>514-866-7070canada@sodexo.comhttp://ca.sodexo.com/caen/contact.aspx</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>10 à 531 400 $</t>
+          <t>1 000 à 7 000 $</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1 173 800 :$</t>
+          <t>50 800 $</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>155 535 $</t>
+          <t>426 000 $En tout temps</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -7154,28 +7182,32 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>31 décembreAlimentation (santé; dans les écoles). Banques alimentaires (communautaire et vestimentaires, auberges). Éducation (améliorer l’alimentation). Enfants (développement et bien-être). Environnement. Pauvreté. Santé. Services sociaux.Activité bénéfice annuelle (ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés). Dons jumelés (avec les employés).</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes enregistrés). Centraide. Éducation. Enfance et jeunesse. Enfants (développement et bien-être). Hôpitaux. Maladies (infantiles et le cancer du sein, maladie du coeur, AVC et autres). Pauvreté. Recherche (sur ces maladies). Santé. Services sociaux.</t>
+          <t xml:space="preserve">Pauvreté. Voué à réduire la faim dans les communautés.  </t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (tournois, événements sportifs, marketing lié à une cause). Bien-être des enfants. Santé.</t>
+          <t>Programmes de réduction de la faim d’organismes com-munautaires. 740, rue Saint-Maurice, bur. 106   MontréalQCH3C1L5B</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier. Limites géographiques : le Québec.</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr"/>
+          <t>Administre ses propres programmes. Communiquer par : courrier ou courriel. Limites géographiques : Montréal, Ottawa, Toronto, Halifax, Calgary et Vancouver. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>canada@sodexo.com</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>http://www.ultramarcst.ca  -ou- https://www.ultramar.ca/fr- qc/engagement-communautaire/fondation-ultramar/</t>
+          <t xml:space="preserve">http://ca.stop-hunger.org/fr/home/subvention.html </t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -7191,7 +7223,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7199,29 +7231,93 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sony Canada Charitable Foundation </t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>La Fondation Unilever a été révoquée volontairement.</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
+          <t>c/o Sony of Canada 115 Gordon Baker Rd Toronto ON M2H3R6</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mr Barry Hasler, Treasurer </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>416-499-1414</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>250 à 145 650 $</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>240 100 $</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2 780 100 $</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>31 mars</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Causes charitables en général (organismes canadiens enregistrés). Centraide. Make-a-Wish Canada. Éducation. Enfance et jeunesse. Enfants (développement et bien-être). Environnement. Hôpitaux (divertissement pour enfants malades). Pauvreté. Services sociaux. Universités (canadiennes).</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Activité bénéfice annuelle (Tournois de golf). Bourses aux particuliers (bourses de 3 000 $ ch. à 10 universités canadiennes). Dons jumelés (avec les employés). Prix.</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>general_inquiries@sony.ca</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>www.sony.ca/view/corporate_philanthropy.htm</t>
+        </is>
+      </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>416-491-7560</t>
+        </is>
+      </c>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -7232,7 +7328,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7242,41 +7338,49 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>UPS Foundation,</t>
+          <t>SSQ,</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>c/o UPS Canada Ltd 6285 Northam Drive, Suite 400 Mississauga ON L4V1X5</t>
+          <t>2525, boul. Laurier  C.P. 10 500 Ste-Foy QC G1V4L2</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Eduardo Martinez, President </t>
+          <t xml:space="preserve">Monsieur Jean Cinq-Mars, Personne Ressource </t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>800-742-5877</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>418-651-7000</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>500 à 25 000 $</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>93 500 000 $</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
+          <t>81 560 $</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1 570 800 $</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
           <t>En tout temps</t>
@@ -7289,36 +7393,32 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Aînés. Banques alimentaires (communautaire). Causes charitables en général. Centraide. Économie sociale (développement). Éducation (des adultes). Enfants (développement et bien-être). Enfants maltraîtés / abusés. Environnement. Famille (counselling et services). Handicapés visuels. Jeunesse. Littérature. Paix et sécurité. Pauvreté. Relève artistique (chanson, littérature, théâtre). Santé. Services sociaux.</t>
+          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Centres de plein air (et camps d'été / de vacances). Éducation. Enfants (développement et bien-être). Enfants maltraîtés / abusés. Hébergement d'urgence (pour enfants et jeunes). Jeunesse. Prévention du crime (et du suicide). Santé. Services sociaux. Sports et loisirs (terrains de jeux).</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Dons jumelés (avec les employés). Fonds d'équipement. Fonds d'urgence ou de secours. Fonds pour programmes et services. Projets spéciaux.</t>
+          <t>Bourses aux particuliers. Prix.</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou courriel. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : Canada et internationales. Soumettre d'abord un résumé du projet. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>community@ups.com</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier ou fax. Favorise les organismes communautaires. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet (avec le budget total). Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
-          <t>www.community.ups.com</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>http://www.community.ups.com/UPS+Foundation</t>
-        </is>
-      </c>
+          <t>www.ssq.ca</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>418-652-1659</t>
+        </is>
+      </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -7329,7 +7429,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7337,85 +7437,29 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Velan Foundation,</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>7007, ch. Côte-de-Liesse Saint-Laurent QC H4T1G2</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation privée </t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mrs Olga Velan, Secretary </t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>514-748-7743</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>300 à 300 000 $</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>611 565 :$</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>2 364 800 $</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Banques alimentaires (communautaire et vestimentaires, auberges, etc). Causes charitables en général (organismes enregistrés). Éducation (Bourses d'études, bourses d'entretien, etc). Famille (counselling à la famille et consultation d'urgence). Hôpitaux. Santé. Services communautaires (clubs).</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondations hospitalières.</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : Montréal et internationales.</t>
-        </is>
-      </c>
+          <t>Voir la Fondation St-Hubert, plus haut.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>514-748-9593</t>
-        </is>
-      </c>
+      <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
@@ -7426,7 +7470,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>1191</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7436,82 +7480,661 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Xerox Foundation,</t>
+          <t xml:space="preserve">The Steris Foundation </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>45 Glover Avenue P.O. Box 4505 Norwalk CT 06856-4505 USA</t>
+          <t>5960 Heisley Rd Mentor, OH, 44060-1834  USA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">A  </t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mr Mark J. Conlin, President </t>
-        </is>
-      </c>
+          <t xml:space="preserve">Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1-800-275-9376</t>
+          <t>(440) 354-2600</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>13 500 000 USD$</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Affaires publiques. Arts et culture. Arts visuels (sculpture, peinture, gravure). Centres de plein air (et camps d'été). Culture et traditions. Danse. Développement communautaire. Développement du leadership. Éducation (en science, technologie, ingénierie et mathématiques - STEM). Enfants (développement et bien-être). Enfants maltraîtés / abusés. Environnement (parcs et jardins). Femmes et causes féminines (femmes abusées). Institutions d'enseignement. Science et technologie. Sciences et sciences sociales. Services communautaires. Services sociaux (YMCA/YWCA, Grands Frères et Grandes Sœurs). Théâtre. Vétérans (militaires et les organismes).</t>
+          <t xml:space="preserve">Environnement, santé et sécurité industrielle.  </t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Campagne annuelle. Dons jumelés (avec les employés). Équipement spécialisé. Fonds de développement. Fonds de fonctionnement ou d'opération. Fonds de recherche. Fonds d'équipement. Fonds d'urgence ou de secours. Fonds pour programmes et services. Parcs et jardins.</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier, 2 à 3 pages. Rapport annuel, brochure et formulaire disponibles sur demande. Soumettre d'abord un résumé du projet (en 1 copie). L’adresse au Canada :  Xerox Canada, 5650 Yonge Street, Toronto, Ontario  M2M 4G7.  Tél. 800-939-3769).</t>
-        </is>
-      </c>
+          <t>Appui la santé et l'éducation scientifique et les activités civiques et culturelles.</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
-          <t>www.xerox.com</t>
+          <t xml:space="preserve">www.steris.com </t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>203-968-3330</t>
-        </is>
-      </c>
+      <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>nationales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Tim Horton - Nationale,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>RR2, 264 Glen Morris Rd East St George ON N0E1N0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Org. philanthropique </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monsieur Bill Moir, Directeur-Président </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>519-448-1248</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>17 926 740 $</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>51 463 700 $</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>31 octobre</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Centres de plein air (et camps d'été; au Québec, Camp des Voyageurs Tim Horton, 60, ch. Du Canal, C.P. 310, Quyon Qc J0X2V0;  Tél. : 819-458-3164 ou 514-636-2233 - Fax : 819-458-3181). Enfance et jeunesse (défavorisées). Sports et loisirs.</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Activité bénéfice annuelle (Messages publicitaires, ventes aux enchères, boîte de collecte, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, campagnes de financement par la poste, dons de sociétés et commandites ciblés).</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Formulaire disponible sur demande (ou sur le site web). Limites géographiques : le Québec, le Canada et USA. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>hamilton_erica@timhortons.com</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>www.timhortons.com/ca/fr</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>519-448-1415</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1278</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Utramar Canada,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1155, boul. René-Lévesque O., bur. 3200 Montréal QC H3B0C9</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monsieur Christian Houle, Président </t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>514-499-6494</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>10 à 531 400 $</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1 173 800 :$</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>155 535 $</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Causes charitables en général (organismes enregistrés). Centraide. Éducation. Enfance et jeunesse. Enfants (développement et bien-être). Hôpitaux. Maladies (infantiles et le cancer du sein, maladie du coeur, AVC et autres). Pauvreté. Recherche (sur ces maladies). Santé. Services sociaux.</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Activité bénéfice annuelle (tournois, événements sportifs, marketing lié à une cause). Bien-être des enfants. Santé.</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier. Limites géographiques : le Québec.</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>http://www.ultramarcst.ca  -ou- https://www.ultramar.ca/fr- qc/engagement-communautaire/fondation-ultramar/</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>La Fondation Unilever a été révoquée volontairement.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>UPS Foundation,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>c/o UPS Canada Ltd 6285 Northam Drive, Suite 400 Mississauga ON L4V1X5</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mr Eduardo Martinez, President </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>800-742-5877</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>93 500 000 $</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Aînés. Banques alimentaires (communautaire). Causes charitables en général. Centraide. Économie sociale (développement). Éducation (des adultes). Enfants (développement et bien-être). Enfants maltraîtés / abusés. Environnement. Famille (counselling et services). Handicapés visuels. Jeunesse. Littérature. Paix et sécurité. Pauvreté. Relève artistique (chanson, littérature, théâtre). Santé. Services sociaux.</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Dons jumelés (avec les employés). Fonds d'équipement. Fonds d'urgence ou de secours. Fonds pour programmes et services. Projets spéciaux.</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier ou courriel. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : Canada et internationales. Soumettre d'abord un résumé du projet. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>community@ups.com</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>www.community.ups.com</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>http://www.community.ups.com/UPS+Foundation</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Velan Foundation,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>7007, ch. Côte-de-Liesse Saint-Laurent QC H4T1G2</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation privée </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mrs Olga Velan, Secretary </t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>514-748-7743</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>300 à 300 000 $</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>611 565 :$</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2 364 800 $</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Banques alimentaires (communautaire et vestimentaires, auberges, etc). Causes charitables en général (organismes enregistrés). Éducation (Bourses d'études, bourses d'entretien, etc). Famille (counselling à la famille et consultation d'urgence). Hôpitaux. Santé. Services communautaires (clubs).</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondations hospitalières.</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : Montréal et internationales.</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>514-748-9593</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Segal Family Foundation,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>8888, boul. Pie-IX Montréal QC H1Z4J5</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation privée</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Mr Alvin Segal, Director</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>514-593-9300</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>alvins@peerclo.com</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>www.peerlessclothing.com</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>514-593-9640</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1338</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Xerox Foundation,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>45 Glover Avenue P.O. Box 4505 Norwalk CT 06856-4505 USA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mr Mark J. Conlin, President </t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1-800-275-9376</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>13 500 000 USD$</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Affaires publiques. Arts et culture. Arts visuels (sculpture, peinture, gravure). Centres de plein air (et camps d'été). Culture et traditions. Danse. Développement communautaire. Développement du leadership. Éducation (en science, technologie, ingénierie et mathématiques - STEM). Enfants (développement et bien-être). Enfants maltraîtés / abusés. Environnement (parcs et jardins). Femmes et causes féminines (femmes abusées). Institutions d'enseignement. Science et technologie. Sciences et sciences sociales. Services communautaires. Services sociaux (YMCA/YWCA, Grands Frères et Grandes Sœurs). Théâtre. Vétérans (militaires et les organismes).</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Campagne annuelle. Dons jumelés (avec les employés). Équipement spécialisé. Fonds de développement. Fonds de fonctionnement ou d'opération. Fonds de recherche. Fonds d'équipement. Fonds d'urgence ou de secours. Fonds pour programmes et services. Parcs et jardins.</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, 2 à 3 pages. Rapport annuel, brochure et formulaire disponibles sur demande. Soumettre d'abord un résumé du projet (en 1 copie). L’adresse au Canada :  Xerox Canada, 5650 Yonge Street, Toronto, Ontario  M2M 4G7.  Tél. 800-939-3769).</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>www.xerox.com</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>203-968-3330</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
